--- a/initial_claims/PA/PA_data.xlsx
+++ b/initial_claims/PA/PA_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/states/PA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D436DA-EB92-0549-B271-B5385AAA8444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83995EAC-5814-6948-A956-B2CECD6CD64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC by County and Week" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
   <si>
     <t>UC Initial Claims by County and Week</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>WE 5/30/2020</t>
+  </si>
+  <si>
+    <t>WE 6/6/2020</t>
+  </si>
+  <si>
+    <t>WE 6/13/2020</t>
   </si>
   <si>
     <t>Adams County</t>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -816,7 +822,7 @@
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -840,8 +846,12 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+    </row>
+    <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -885,10 +895,18 @@
         <v>11</v>
       </c>
       <c r="U2" s="15"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="X2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>1127</v>
@@ -960,10 +978,24 @@
         <f>T3/T$72</f>
         <v>4.8203525998661012E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V3" s="3">
+        <v>204</v>
+      </c>
+      <c r="W3" s="4">
+        <f>V3/V$72</f>
+        <v>4.1964083681319811E-3</v>
+      </c>
+      <c r="X3" s="3">
+        <v>305</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>X3/X$72</f>
+        <v>6.003109807703663E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>12140</v>
@@ -1035,10 +1067,24 @@
         <f>T4/T$72</f>
         <v>4.5949564829279178E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V4" s="6">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="7">
+        <f>V4/V$72</f>
+        <v>5.3483636064427208E-2</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2534</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>X4/X$72</f>
+        <v>4.9875017222036334E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8">
         <v>947</v>
@@ -1110,10 +1156,24 @@
         <f>T5/T$72</f>
         <v>4.7980361526444989E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V5" s="8">
+        <v>318</v>
+      </c>
+      <c r="W5" s="7">
+        <f>V5/V$72</f>
+        <v>6.541460103264559E-3</v>
+      </c>
+      <c r="X5" s="8">
+        <v>293</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>X5/X$72</f>
+        <v>5.7669218808431913E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8">
         <v>2283</v>
@@ -1185,10 +1245,24 @@
         <f>T6/T$72</f>
         <v>1.1492970319125195E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V6" s="8">
+        <v>645</v>
+      </c>
+      <c r="W6" s="7">
+        <f>V6/V$72</f>
+        <v>1.3268055869829059E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>734</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>X6/X$72</f>
+        <v>1.4446828192965536E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8">
         <v>506</v>
@@ -1260,10 +1334,24 @@
         <f>T7/T$72</f>
         <v>6.5833519303726846E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V7" s="8">
+        <v>189</v>
+      </c>
+      <c r="W7" s="7">
+        <f>V7/V$72</f>
+        <v>3.8878489292987471E-3</v>
+      </c>
+      <c r="X7" s="8">
+        <v>201</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>X7/X$72</f>
+        <v>3.9561477749129057E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8">
         <v>5766</v>
@@ -1335,10 +1423,24 @@
         <f t="shared" ref="U8:U71" si="8">T8/T$72</f>
         <v>2.3209105110466415E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V8" s="8">
+        <v>1183</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" ref="W8:W71" si="9">V8/V$72</f>
+        <v>2.4335054409314379E-2</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1103</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" ref="Y8:Y71" si="10">X8/X$72</f>
+        <v>2.1709606943925049E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8">
         <v>1815</v>
@@ -1410,10 +1512,24 @@
         <f t="shared" si="8"/>
         <v>7.5875920553447893E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V9" s="8">
+        <v>295</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="9"/>
+        <v>6.0683356303869338E-3</v>
+      </c>
+      <c r="X9" s="8">
+        <v>432</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="10"/>
+        <v>8.5027653669769911E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>436</v>
@@ -1485,10 +1601,24 @@
         <f t="shared" si="8"/>
         <v>1.874581566614595E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V10" s="8">
+        <v>106</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="9"/>
+        <v>2.1804867010881863E-3</v>
+      </c>
+      <c r="X10" s="8">
+        <v>128</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="10"/>
+        <v>2.5193378865117013E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8">
         <v>5760</v>
@@ -1560,10 +1690,24 @@
         <f t="shared" si="8"/>
         <v>1.9169828163356394E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V11" s="8">
+        <v>1069</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="9"/>
+        <v>2.1990002674181802E-2</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1269</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4976873265494911E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8">
         <v>2133</v>
@@ -1635,10 +1779,24 @@
         <f t="shared" si="8"/>
         <v>7.6099085025663916E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V12" s="8">
+        <v>552</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1354987349063008E-2</v>
+      </c>
+      <c r="X12" s="8">
+        <v>516</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0156080855000296E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8">
         <v>1689</v>
@@ -1710,10 +1868,24 @@
         <f t="shared" si="8"/>
         <v>7.2751617942423564E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V13" s="8">
+        <v>350</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="9"/>
+        <v>7.1997202394421247E-3</v>
+      </c>
+      <c r="X13" s="8">
+        <v>478</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="10"/>
+        <v>9.4081524199421344E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8">
         <v>117</v>
@@ -1785,10 +1957,24 @@
         <f t="shared" si="8"/>
         <v>5.5791118054005807E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V14" s="8">
+        <v>41</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" si="9"/>
+        <v>8.4339579947750605E-4</v>
+      </c>
+      <c r="X14" s="8">
+        <v>59</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1612573070639873E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8">
         <v>932</v>
@@ -1860,10 +2046,24 @@
         <f t="shared" si="8"/>
         <v>3.9946440526668157E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V15" s="8">
+        <v>170</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="9"/>
+        <v>3.4970069734433177E-3</v>
+      </c>
+      <c r="X15" s="8">
+        <v>157</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="10"/>
+        <v>3.0901253764245083E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8">
         <v>1025</v>
@@ -1935,10 +2135,24 @@
         <f t="shared" si="8"/>
         <v>4.0839098415532248E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V16" s="8">
+        <v>167</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="9"/>
+        <v>3.4352950856766707E-3</v>
+      </c>
+      <c r="X16" s="8">
+        <v>211</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="10"/>
+        <v>4.152971047296632E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8">
         <v>3869</v>
@@ -2010,10 +2224,24 @@
         <f t="shared" si="8"/>
         <v>1.3233653202410177E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V17" s="8">
+        <v>569</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1704688046407339E-2</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1050</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="10"/>
+        <v>2.0666443600291299E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8">
         <v>717</v>
@@ -2085,10 +2313,24 @@
         <f t="shared" si="8"/>
         <v>1.8522651193929925E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V18" s="8">
+        <v>112</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="9"/>
+        <v>2.3039104766214799E-3</v>
+      </c>
+      <c r="X18" s="8">
+        <v>102</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="10"/>
+        <v>2.0075973783140119E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8">
         <v>1166</v>
@@ -2160,10 +2402,24 @@
         <f t="shared" si="8"/>
         <v>4.7980361526444989E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V19" s="8">
+        <v>192</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="9"/>
+        <v>3.949560817065394E-3</v>
+      </c>
+      <c r="X19" s="8">
+        <v>247</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="10"/>
+        <v>4.8615348278780481E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8">
         <v>427</v>
@@ -2235,10 +2491,24 @@
         <f t="shared" si="8"/>
         <v>1.6960499888417763E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V20" s="8">
+        <v>80</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="9"/>
+        <v>1.6456503404439142E-3</v>
+      </c>
+      <c r="X20" s="8">
+        <v>92</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8107741059302852E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8">
         <v>804</v>
@@ -2310,10 +2580,24 @@
         <f t="shared" si="8"/>
         <v>3.3920999776835526E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V21" s="8">
+        <v>203</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="9"/>
+        <v>4.1758377388764322E-3</v>
+      </c>
+      <c r="X21" s="8">
+        <v>224</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="10"/>
+        <v>4.4088413013954773E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8">
         <v>1220</v>
@@ -2385,10 +2669,24 @@
         <f t="shared" si="8"/>
         <v>3.4813657665699622E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V22" s="8">
+        <v>291</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="9"/>
+        <v>5.9860531133647376E-3</v>
+      </c>
+      <c r="X22" s="8">
+        <v>328</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="10"/>
+        <v>6.4558033341862338E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8">
         <v>2124</v>
@@ -2460,10 +2758,24 @@
         <f t="shared" si="8"/>
         <v>1.0868109796920331E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V23" s="8">
+        <v>439</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="9"/>
+        <v>9.0305062431859789E-3</v>
+      </c>
+      <c r="X23" s="8">
+        <v>635</v>
+      </c>
+      <c r="Y23" s="7">
+        <f t="shared" si="10"/>
+        <v>1.2498277796366643E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8">
         <v>2967</v>
@@ -2535,10 +2847,24 @@
         <f t="shared" si="8"/>
         <v>1.5710778844008035E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V24" s="8">
+        <v>640</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3165202723551313E-2</v>
+      </c>
+      <c r="X24" s="8">
+        <v>805</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="10"/>
+        <v>1.5844273426889995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="8">
         <v>4932</v>
@@ -2610,10 +2936,24 @@
         <f t="shared" si="8"/>
         <v>2.2740459718812764E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V25" s="8">
+        <v>1043</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="9"/>
+        <v>2.145516631353753E-2</v>
+      </c>
+      <c r="X25" s="8">
+        <v>1389</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="10"/>
+        <v>2.7338752534099633E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="8">
         <v>917</v>
@@ -2685,10 +3025,24 @@
         <f t="shared" si="8"/>
         <v>5.4005802276277616E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V26" s="8">
+        <v>310</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" si="9"/>
+        <v>6.3768950692201674E-3</v>
+      </c>
+      <c r="X26" s="8">
+        <v>326</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="10"/>
+        <v>6.4164386797094892E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="8">
         <v>3366</v>
@@ -2760,10 +3114,24 @@
         <f t="shared" si="8"/>
         <v>1.3322918991296586E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V27" s="8">
+        <v>765</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" si="9"/>
+        <v>1.5736531380494929E-2</v>
+      </c>
+      <c r="X27" s="8">
+        <v>980</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" si="10"/>
+        <v>1.928868069360521E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="8">
         <v>1944</v>
@@ -2835,10 +3203,24 @@
         <f t="shared" si="8"/>
         <v>6.3155545637134571E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V28" s="8">
+        <v>428</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="9"/>
+        <v>8.8042293213749408E-3</v>
+      </c>
+      <c r="X28" s="8">
+        <v>472</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" si="10"/>
+        <v>9.2900584565118981E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8">
         <v>70</v>
@@ -2910,10 +3292,24 @@
         <f t="shared" si="8"/>
         <v>2.0084802499442089E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V29" s="8">
+        <v>7</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4399440478884249E-4</v>
+      </c>
+      <c r="X29" s="8">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="10"/>
+        <v>3.1491723581396266E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="8">
         <v>1038</v>
@@ -2985,10 +3381,24 @@
         <f t="shared" si="8"/>
         <v>1.1269805846909172E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V30" s="8">
+        <v>412</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" si="9"/>
+        <v>8.4750992532861575E-3</v>
+      </c>
+      <c r="X30" s="8">
+        <v>535</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0530045072529377E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="8">
         <v>117</v>
@@ -3060,10 +3470,24 @@
         <f t="shared" si="8"/>
         <v>5.8022762776166036E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V31" s="8">
+        <v>64</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3165202723551313E-3</v>
+      </c>
+      <c r="X31" s="8">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="10"/>
+        <v>1.2006219615407325E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8">
         <v>298</v>
@@ -3135,10 +3559,24 @@
         <f t="shared" si="8"/>
         <v>1.4728855166257532E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V32" s="8">
+        <v>106</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="9"/>
+        <v>2.1804867010881863E-3</v>
+      </c>
+      <c r="X32" s="8">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9682327238372665E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8">
         <v>551</v>
@@ -3210,10 +3648,24 @@
         <f t="shared" si="8"/>
         <v>5.8692256192814105E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V33" s="8">
+        <v>133</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" si="9"/>
+        <v>2.7358936909880074E-3</v>
+      </c>
+      <c r="X33" s="8">
+        <v>169</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="10"/>
+        <v>3.3263133032849805E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8">
         <v>820</v>
@@ -3285,10 +3737,24 @@
         <f t="shared" si="8"/>
         <v>4.1062262887748271E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V34" s="8">
+        <v>326</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" si="9"/>
+        <v>6.7060251373089507E-3</v>
+      </c>
+      <c r="X34" s="8">
+        <v>309</v>
+      </c>
+      <c r="Y34" s="7">
+        <f t="shared" si="10"/>
+        <v>6.0818391166571539E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" s="8">
         <v>604</v>
@@ -3360,10 +3826,24 @@
         <f t="shared" si="8"/>
         <v>3.3028341887971434E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V35" s="8">
+        <v>166</v>
+      </c>
+      <c r="W35" s="7">
+        <f t="shared" si="9"/>
+        <v>3.4147244564211219E-3</v>
+      </c>
+      <c r="X35" s="8">
+        <v>188</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" si="10"/>
+        <v>3.7002775208140612E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="8">
         <v>525</v>
@@ -3435,10 +3915,24 @@
         <f t="shared" si="8"/>
         <v>1.0488730194153091E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V36" s="8">
+        <v>62</v>
+      </c>
+      <c r="W36" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2753790138440334E-3</v>
+      </c>
+      <c r="X36" s="8">
+        <v>63</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="10"/>
+        <v>1.2399866160174779E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8">
         <v>2144</v>
@@ -3510,10 +4004,24 @@
         <f t="shared" si="8"/>
         <v>1.0466413746931488E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V37" s="8">
+        <v>501</v>
+      </c>
+      <c r="W37" s="7">
+        <f t="shared" si="9"/>
+        <v>1.0305885257030013E-2</v>
+      </c>
+      <c r="X37" s="8">
+        <v>603</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1868443324738718E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="8">
         <v>7051</v>
@@ -3585,10 +4093,24 @@
         <f t="shared" si="8"/>
         <v>2.5150636018745814E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V38" s="8">
+        <v>1117</v>
+      </c>
+      <c r="W38" s="7">
+        <f t="shared" si="9"/>
+        <v>2.297739287844815E-2</v>
+      </c>
+      <c r="X38" s="8">
+        <v>1842</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" si="10"/>
+        <v>3.6254846773082453E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8">
         <v>908</v>
@@ -3660,10 +4182,24 @@
         <f t="shared" si="8"/>
         <v>4.3517072082124523E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V39" s="8">
+        <v>259</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" si="9"/>
+        <v>5.3277929771871719E-3</v>
+      </c>
+      <c r="X39" s="8">
+        <v>258</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="10"/>
+        <v>5.0780404275001479E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="8">
         <v>1848</v>
@@ -3735,10 +4271,24 @@
         <f t="shared" si="8"/>
         <v>6.2262887748270471E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V40" s="8">
+        <v>292</v>
+      </c>
+      <c r="W40" s="7">
+        <f t="shared" si="9"/>
+        <v>6.0066237426202864E-3</v>
+      </c>
+      <c r="X40" s="8">
+        <v>467</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" si="10"/>
+        <v>9.1916468203200354E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="8">
         <v>4389</v>
@@ -3810,10 +4360,24 @@
         <f t="shared" si="8"/>
         <v>2.0731979468868556E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V41" s="8">
+        <v>1096</v>
+      </c>
+      <c r="W41" s="7">
+        <f t="shared" si="9"/>
+        <v>2.2545409664081625E-2</v>
+      </c>
+      <c r="X41" s="8">
+        <v>977</v>
+      </c>
+      <c r="Y41" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9229633711890095E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="8">
         <v>3423</v>
@@ -3885,10 +4449,24 @@
         <f t="shared" si="8"/>
         <v>2.0441865654987727E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V42" s="8">
+        <v>1031</v>
+      </c>
+      <c r="W42" s="7">
+        <f t="shared" si="9"/>
+        <v>2.1208318762470944E-2</v>
+      </c>
+      <c r="X42" s="8">
+        <v>929</v>
+      </c>
+      <c r="Y42" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8284882004448205E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="8">
         <v>1421</v>
@@ -3960,10 +4538,24 @@
         <f t="shared" si="8"/>
         <v>6.0700736442758311E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V43" s="8">
+        <v>369</v>
+      </c>
+      <c r="W43" s="7">
+        <f t="shared" si="9"/>
+        <v>7.5905621952975545E-3</v>
+      </c>
+      <c r="X43" s="8">
+        <v>361</v>
+      </c>
+      <c r="Y43" s="7">
+        <f t="shared" si="10"/>
+        <v>7.1053201330525317E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="8">
         <v>646</v>
@@ -4035,10 +4627,24 @@
         <f t="shared" si="8"/>
         <v>1.7853157777281857E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V44" s="8">
+        <v>114</v>
+      </c>
+      <c r="W44" s="7">
+        <f t="shared" si="9"/>
+        <v>2.3450517351325775E-3</v>
+      </c>
+      <c r="X44" s="8">
+        <v>114</v>
+      </c>
+      <c r="Y44" s="7">
+        <f t="shared" si="10"/>
+        <v>2.2437853051744837E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="8">
         <v>1288</v>
@@ -4110,10 +4716,24 @@
         <f t="shared" si="8"/>
         <v>6.0700736442758311E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V45" s="8">
+        <v>399</v>
+      </c>
+      <c r="W45" s="7">
+        <f t="shared" si="9"/>
+        <v>8.2076810729640216E-3</v>
+      </c>
+      <c r="X45" s="8">
+        <v>501</v>
+      </c>
+      <c r="Y45" s="7">
+        <f t="shared" si="10"/>
+        <v>9.860845946424706E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8">
         <v>641</v>
@@ -4185,10 +4805,24 @@
         <f t="shared" si="8"/>
         <v>3.0127203749163133E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V46" s="8">
+        <v>119</v>
+      </c>
+      <c r="W46" s="7">
+        <f t="shared" si="9"/>
+        <v>2.4479048814103222E-3</v>
+      </c>
+      <c r="X46" s="8">
+        <v>126</v>
+      </c>
+      <c r="Y46" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4799732320349558E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="8">
         <v>1626</v>
@@ -4260,10 +4894,24 @@
         <f t="shared" si="8"/>
         <v>7.4090604775719701E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V47" s="8">
+        <v>343</v>
+      </c>
+      <c r="W47" s="7">
+        <f t="shared" si="9"/>
+        <v>7.0557258346532819E-3</v>
+      </c>
+      <c r="X47" s="8">
+        <v>365</v>
+      </c>
+      <c r="Y47" s="7">
+        <f t="shared" si="10"/>
+        <v>7.1840494420060226E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8">
         <v>6506</v>
@@ -4335,10 +4983,24 @@
         <f t="shared" si="8"/>
         <v>2.8051774157554117E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V48" s="8">
+        <v>1297</v>
+      </c>
+      <c r="W48" s="7">
+        <f t="shared" si="9"/>
+        <v>2.668010614444696E-2</v>
+      </c>
+      <c r="X48" s="8">
+        <v>1754</v>
+      </c>
+      <c r="Y48" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4522801976105653E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="8">
         <v>149</v>
@@ -4410,10 +5072,24 @@
         <f t="shared" si="8"/>
         <v>4.4632894443204642E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V49" s="8">
+        <v>38</v>
+      </c>
+      <c r="W49" s="7">
+        <f t="shared" si="9"/>
+        <v>7.8168391171085918E-4</v>
+      </c>
+      <c r="X49" s="8">
+        <v>29</v>
+      </c>
+      <c r="Y49" s="7">
+        <f t="shared" si="10"/>
+        <v>5.7078748991280727E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="8">
         <v>2808</v>
@@ -4485,10 +5161,24 @@
         <f t="shared" si="8"/>
         <v>1.4594956482927917E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V50" s="8">
+        <v>855</v>
+      </c>
+      <c r="W50" s="7">
+        <f t="shared" si="9"/>
+        <v>1.7587888013494334E-2</v>
+      </c>
+      <c r="X50" s="8">
+        <v>659</v>
+      </c>
+      <c r="Y50" s="7">
+        <f t="shared" si="10"/>
+        <v>1.2970653650087587E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="8">
         <v>1213</v>
@@ -4560,10 +5250,24 @@
         <f t="shared" si="8"/>
         <v>4.8426690470877035E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V51" s="8">
+        <v>312</v>
+      </c>
+      <c r="W51" s="7">
+        <f t="shared" si="9"/>
+        <v>6.4180363277312651E-3</v>
+      </c>
+      <c r="X51" s="8">
+        <v>269</v>
+      </c>
+      <c r="Y51" s="7">
+        <f t="shared" si="10"/>
+        <v>5.294546027122247E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="8">
         <v>577</v>
@@ -4635,10 +5339,24 @@
         <f t="shared" si="8"/>
         <v>2.2985940638250392E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V52" s="8">
+        <v>70</v>
+      </c>
+      <c r="W52" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4399440478884249E-3</v>
+      </c>
+      <c r="X52" s="8">
+        <v>124</v>
+      </c>
+      <c r="Y52" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4406085775582104E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="8">
         <v>13037</v>
@@ -4710,10 +5428,24 @@
         <f t="shared" si="8"/>
         <v>8.3374246819906267E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V53" s="8">
+        <v>4270</v>
+      </c>
+      <c r="W53" s="7">
+        <f t="shared" si="9"/>
+        <v>8.7836586921193921E-2</v>
+      </c>
+      <c r="X53" s="8">
+        <v>5251</v>
+      </c>
+      <c r="Y53" s="7">
+        <f t="shared" si="10"/>
+        <v>0.10335190032869486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B54" s="8">
         <v>343</v>
@@ -4785,10 +5517,24 @@
         <f t="shared" si="8"/>
         <v>1.2050881499665253E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V54" s="8">
+        <v>73</v>
+      </c>
+      <c r="W54" s="7">
+        <f t="shared" si="9"/>
+        <v>1.5016559356550716E-3</v>
+      </c>
+      <c r="X54" s="8">
+        <v>70</v>
+      </c>
+      <c r="Y54" s="7">
+        <f t="shared" si="10"/>
+        <v>1.3777629066860865E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" s="8">
         <v>165</v>
@@ -4860,10 +5606,24 @@
         <f t="shared" si="8"/>
         <v>6.2486052220486494E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V55" s="8">
+        <v>46</v>
+      </c>
+      <c r="W55" s="7">
+        <f t="shared" si="9"/>
+        <v>9.462489457552506E-4</v>
+      </c>
+      <c r="X55" s="8">
+        <v>50</v>
+      </c>
+      <c r="Y55" s="7">
+        <f t="shared" si="10"/>
+        <v>9.8411636191863324E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B56" s="8">
         <v>1840</v>
@@ -4935,10 +5695,24 @@
         <f t="shared" si="8"/>
         <v>8.5471992858736894E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V56" s="8">
+        <v>496</v>
+      </c>
+      <c r="W56" s="7">
+        <f t="shared" si="9"/>
+        <v>1.0203032110752268E-2</v>
+      </c>
+      <c r="X56" s="8">
+        <v>469</v>
+      </c>
+      <c r="Y56" s="7">
+        <f t="shared" si="10"/>
+        <v>9.2310114747967808E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" s="8">
         <v>636</v>
@@ -5010,10 +5784,24 @@
         <f t="shared" si="8"/>
         <v>1.7629993305065834E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V57" s="8">
+        <v>88</v>
+      </c>
+      <c r="W57" s="7">
+        <f t="shared" si="9"/>
+        <v>1.8102153744883056E-3</v>
+      </c>
+      <c r="X57" s="8">
+        <v>90</v>
+      </c>
+      <c r="Y57" s="7">
+        <f t="shared" si="10"/>
+        <v>1.77140945145354E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" s="8">
         <v>887</v>
@@ -5085,10 +5873,24 @@
         <f t="shared" si="8"/>
         <v>3.4590493193483599E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V58" s="8">
+        <v>272</v>
+      </c>
+      <c r="W58" s="7">
+        <f t="shared" si="9"/>
+        <v>5.5952111575093078E-3</v>
+      </c>
+      <c r="X58" s="8">
+        <v>312</v>
+      </c>
+      <c r="Y58" s="7">
+        <f t="shared" si="10"/>
+        <v>6.1408860983722712E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B59" s="8">
         <v>52</v>
@@ -5160,10 +5962,24 @@
         <f t="shared" si="8"/>
         <v>1.5621513055121623E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V59" s="8">
+        <v>14</v>
+      </c>
+      <c r="W59" s="7">
+        <f t="shared" si="9"/>
+        <v>2.8798880957768498E-4</v>
+      </c>
+      <c r="X59" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y59" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5428189029070798E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B60" s="8">
         <v>211</v>
@@ -5235,10 +6051,24 @@
         <f t="shared" si="8"/>
         <v>8.7034144164249054E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V60" s="8">
+        <v>39</v>
+      </c>
+      <c r="W60" s="7">
+        <f t="shared" si="9"/>
+        <v>8.0225454096640814E-4</v>
+      </c>
+      <c r="X60" s="8">
+        <v>53</v>
+      </c>
+      <c r="Y60" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0431633436337512E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61" s="8">
         <v>396</v>
@@ -5310,10 +6140,24 @@
         <f t="shared" si="8"/>
         <v>2.4771256415978575E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V61" s="8">
+        <v>150</v>
+      </c>
+      <c r="W61" s="7">
+        <f t="shared" si="9"/>
+        <v>3.085594388332339E-3</v>
+      </c>
+      <c r="X61" s="8">
+        <v>122</v>
+      </c>
+      <c r="Y61" s="7">
+        <f t="shared" si="10"/>
+        <v>2.401243923081465E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62" s="8">
         <v>503</v>
@@ -5385,10 +6229,24 @@
         <f t="shared" si="8"/>
         <v>1.4728855166257532E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V62" s="8">
+        <v>99</v>
+      </c>
+      <c r="W62" s="7">
+        <f t="shared" si="9"/>
+        <v>2.036492296299344E-3</v>
+      </c>
+      <c r="X62" s="8">
+        <v>92</v>
+      </c>
+      <c r="Y62" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8107741059302852E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" s="8">
         <v>607</v>
@@ -5460,10 +6318,24 @@
         <f t="shared" si="8"/>
         <v>1.8522651193929925E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V63" s="8">
+        <v>141</v>
+      </c>
+      <c r="W63" s="7">
+        <f t="shared" si="9"/>
+        <v>2.9004587250323986E-3</v>
+      </c>
+      <c r="X63" s="8">
+        <v>215</v>
+      </c>
+      <c r="Y63" s="7">
+        <f t="shared" si="10"/>
+        <v>4.2317003562501228E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B64" s="8">
         <v>333</v>
@@ -5535,10 +6407,24 @@
         <f t="shared" si="8"/>
         <v>1.316670386074537E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V64" s="8">
+        <v>71</v>
+      </c>
+      <c r="W64" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4605146771439739E-3</v>
+      </c>
+      <c r="X64" s="8">
+        <v>124</v>
+      </c>
+      <c r="Y64" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4406085775582104E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8">
         <v>2438</v>
@@ -5610,10 +6496,24 @@
         <f t="shared" si="8"/>
         <v>1.0243249274715465E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V65" s="8">
+        <v>557</v>
+      </c>
+      <c r="W65" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1457840495340753E-2</v>
+      </c>
+      <c r="X65" s="8">
+        <v>555</v>
+      </c>
+      <c r="Y65" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0923691617296829E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8">
         <v>448</v>
@@ -5685,10 +6585,24 @@
         <f t="shared" si="8"/>
         <v>1.9638473555010044E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V66" s="8">
+        <v>59</v>
+      </c>
+      <c r="W66" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2136671260773867E-3</v>
+      </c>
+      <c r="X66" s="8">
+        <v>71</v>
+      </c>
+      <c r="Y66" s="7">
+        <f t="shared" si="10"/>
+        <v>1.3974452339244592E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" s="8">
         <v>4865</v>
@@ -5760,10 +6674,24 @@
         <f t="shared" si="8"/>
         <v>1.8321803168935506E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V67" s="8">
+        <v>1325</v>
+      </c>
+      <c r="W67" s="7">
+        <f t="shared" si="9"/>
+        <v>2.7256083763602328E-2</v>
+      </c>
+      <c r="X67" s="8">
+        <v>1196</v>
+      </c>
+      <c r="Y67" s="7">
+        <f t="shared" si="10"/>
+        <v>2.3540063377093707E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6">
         <v>290</v>
@@ -5835,10 +6763,24 @@
         <f t="shared" si="8"/>
         <v>1.0488730194153091E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V68" s="6">
+        <v>58</v>
+      </c>
+      <c r="W68" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1930964968218378E-3</v>
+      </c>
+      <c r="X68" s="6">
+        <v>59</v>
+      </c>
+      <c r="Y68" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1612573070639873E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="6">
         <v>5441</v>
@@ -5910,10 +6852,24 @@
         <f t="shared" si="8"/>
         <v>2.2204864985494309E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V69" s="6">
+        <v>975</v>
+      </c>
+      <c r="W69" s="7">
+        <f t="shared" si="9"/>
+        <v>2.0056363524160205E-2</v>
+      </c>
+      <c r="X69" s="6">
+        <v>1237</v>
+      </c>
+      <c r="Y69" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4347038793866987E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="6">
         <v>7114</v>
@@ -5985,10 +6941,24 @@
         <f t="shared" si="8"/>
         <v>4.0682883284981028E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V70" s="6">
+        <v>2217</v>
+      </c>
+      <c r="W70" s="7">
+        <f t="shared" si="9"/>
+        <v>4.5605085059551971E-2</v>
+      </c>
+      <c r="X70" s="6">
+        <v>2203</v>
+      </c>
+      <c r="Y70" s="7">
+        <f t="shared" si="10"/>
+        <v>4.3360166906134978E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" s="9">
         <v>133996</v>
@@ -6060,95 +7030,125 @@
         <f t="shared" si="8"/>
         <v>0.35157330952912297</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V71" s="9">
+        <v>15214</v>
+      </c>
+      <c r="W71" s="10">
+        <f t="shared" si="9"/>
+        <v>0.31296155349392135</v>
+      </c>
+      <c r="X71" s="9">
+        <v>12731</v>
+      </c>
+      <c r="Y71" s="10">
+        <f t="shared" si="10"/>
+        <v>0.25057570807172241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" ref="B72:I72" si="9">SUM(B3:B71)</f>
+        <f t="shared" ref="B72:I72" si="11">SUM(B3:B71)</f>
         <v>275392</v>
       </c>
       <c r="C72" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D72" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>390753</v>
       </c>
       <c r="E72" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F72" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>273648</v>
       </c>
       <c r="G72" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>153136</v>
       </c>
       <c r="I72" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" ref="J72:U72" si="10">SUM(J3:J71)</f>
+        <f t="shared" ref="J72:Y72" si="12">SUM(J3:J71)</f>
         <v>112964</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>74203</v>
       </c>
       <c r="M72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72206</v>
       </c>
       <c r="O72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>46201</v>
       </c>
       <c r="Q72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>60011</v>
       </c>
       <c r="S72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44810</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999978</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V72" s="12">
+        <f t="shared" si="12"/>
+        <v>48613</v>
+      </c>
+      <c r="W72" s="13">
+        <f t="shared" si="12"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="X72" s="12">
+        <f t="shared" si="12"/>
+        <v>50807</v>
+      </c>
+      <c r="Y72" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -6162,10 +7162,12 @@
       <c r="K74" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:Y1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -6180,7 +7182,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.65" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/4/2020</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/18/2020</oddHeader>
     <oddFooter>&amp;C&amp;"-,Bold"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6188,10 +7190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6200,9 +7202,9 @@
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6224,8 +7226,12 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+    </row>
+    <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6269,10 +7275,18 @@
         <v>11</v>
       </c>
       <c r="U2" s="15"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="X2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>599</v>
@@ -6344,10 +7358,24 @@
         <f>T3/T$72</f>
         <v>6.6097538894785198E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V3" s="3">
+        <v>5667</v>
+      </c>
+      <c r="W3" s="4">
+        <f>V3/V$72</f>
+        <v>6.5671531095765475E-3</v>
+      </c>
+      <c r="X3" s="3">
+        <v>5849</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>X3/X$72</f>
+        <v>6.3056555768774662E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>12499</v>
@@ -6419,10 +7447,24 @@
         <f>T4/T$72</f>
         <v>9.7296193636992281E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V4" s="6">
+        <v>77332</v>
+      </c>
+      <c r="W4" s="7">
+        <f>V4/V$72</f>
+        <v>8.9615508076543782E-2</v>
+      </c>
+      <c r="X4" s="6">
+        <v>89760</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>X4/X$72</f>
+        <v>9.6767933763125549E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8">
         <v>1178</v>
@@ -6494,10 +7536,24 @@
         <f>T5/T$72</f>
         <v>4.7105210947747988E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V5" s="8">
+        <v>3876</v>
+      </c>
+      <c r="W5" s="7">
+        <f>V5/V$72</f>
+        <v>4.4916685111555847E-3</v>
+      </c>
+      <c r="X5" s="8">
+        <v>4378</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>X5/X$72</f>
+        <v>4.7198085340348006E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8">
         <v>1985</v>
@@ -6569,10 +7625,24 @@
         <f>T6/T$72</f>
         <v>1.4213426766854729E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V6" s="8">
+        <v>12008</v>
+      </c>
+      <c r="W6" s="7">
+        <f>V6/V$72</f>
+        <v>1.3915365191423185E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>13311</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>X6/X$72</f>
+        <v>1.4350244722827142E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8">
         <v>592</v>
@@ -6644,10 +7714,24 @@
         <f>T7/T$72</f>
         <v>3.3718123804552381E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V7" s="8">
+        <v>2257</v>
+      </c>
+      <c r="W7" s="7">
+        <f>V7/V$72</f>
+        <v>2.615504600020164E-3</v>
+      </c>
+      <c r="X7" s="8">
+        <v>2769</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>X7/X$72</f>
+        <v>2.9851872614760993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8">
         <v>4319</v>
@@ -6719,10 +7803,24 @@
         <f t="shared" ref="U8:U71" si="9">T8/T$72</f>
         <v>3.393578435810362E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V8" s="8">
+        <v>29244</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" ref="W8:W71" si="10">V8/V$72</f>
+        <v>3.3889152203362728E-2</v>
+      </c>
+      <c r="X8" s="8">
+        <v>30906</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" ref="Y8:Y71" si="11">X8/X$72</f>
+        <v>3.3318959011621636E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8">
         <v>1248</v>
@@ -6794,10 +7892,24 @@
         <f t="shared" si="9"/>
         <v>9.7273079241924892E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V9" s="8">
+        <v>7565</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="10"/>
+        <v>8.7666337169484011E-3</v>
+      </c>
+      <c r="X9" s="8">
+        <v>8367</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="11"/>
+        <v>9.0202462321309212E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>586</v>
@@ -6869,10 +7981,24 @@
         <f t="shared" si="9"/>
         <v>2.4173804841310046E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V10" s="8">
+        <v>2136</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4752848141971952E-3</v>
+      </c>
+      <c r="X10" s="8">
+        <v>2054</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="11"/>
+        <v>2.2143642596864962E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8">
         <v>4815</v>
@@ -6944,10 +8070,24 @@
         <f t="shared" si="9"/>
         <v>4.4774509445119681E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V11" s="8">
+        <v>36070</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="10"/>
+        <v>4.1799402269706382E-2</v>
+      </c>
+      <c r="X11" s="8">
+        <v>42569</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="11"/>
+        <v>4.5892537570883372E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8">
         <v>2182</v>
@@ -7019,10 +8159,24 @@
         <f t="shared" si="9"/>
         <v>1.3296555762515001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V12" s="8">
+        <v>9939</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1517722737970939E-2</v>
+      </c>
+      <c r="X12" s="8">
+        <v>11989</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="11"/>
+        <v>1.2925030725112658E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8">
         <v>1724</v>
@@ -7094,10 +8248,24 @@
         <f t="shared" si="9"/>
         <v>8.7343520360892747E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V13" s="8">
+        <v>7030</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="10"/>
+        <v>8.1466536721939535E-3</v>
+      </c>
+      <c r="X13" s="8">
+        <v>7785</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="11"/>
+        <v>8.3928070894154685E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8">
         <v>96</v>
@@ -7169,10 +8337,24 @@
         <f t="shared" si="9"/>
         <v>4.6421410093671088E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V14" s="8">
+        <v>460</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" si="10"/>
+        <v>5.3306695436830987E-4</v>
+      </c>
+      <c r="X14" s="8">
+        <v>411</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="11"/>
+        <v>4.4308846676297464E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8">
         <v>889</v>
@@ -7244,10 +8426,24 @@
         <f t="shared" si="9"/>
         <v>5.1150230084540897E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V15" s="8">
+        <v>4301</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="10"/>
+        <v>4.9841760233436975E-3</v>
+      </c>
+      <c r="X15" s="8">
+        <v>4560</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="11"/>
+        <v>4.9160180253994268E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8">
         <v>1062</v>
@@ -7319,10 +8515,24 @@
         <f t="shared" si="9"/>
         <v>6.4431376250344312E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V16" s="8">
+        <v>6197</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="10"/>
+        <v>7.1813389483052527E-3</v>
+      </c>
+      <c r="X16" s="8">
+        <v>6041</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="11"/>
+        <v>6.5126458095258631E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8">
         <v>3013</v>
@@ -7394,10 +8604,24 @@
         <f t="shared" si="9"/>
         <v>2.8411443936997863E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V17" s="8">
+        <v>23571</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="10"/>
+        <v>2.7315046046555286E-2</v>
+      </c>
+      <c r="X17" s="8">
+        <v>27463</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9607149787619396E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8">
         <v>526</v>
@@ -7469,10 +8693,24 @@
         <f t="shared" si="9"/>
         <v>2.0937789531875715E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V18" s="8">
+        <v>1633</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8923876880075001E-3</v>
+      </c>
+      <c r="X18" s="8">
+        <v>1668</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="11"/>
+        <v>1.798227646132948E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8">
         <v>1183</v>
@@ -7544,10 +8782,24 @@
         <f t="shared" si="9"/>
         <v>5.1708827965336115E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V19" s="8">
+        <v>4678</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="10"/>
+        <v>5.4210591576846819E-3</v>
+      </c>
+      <c r="X19" s="8">
+        <v>4363</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="11"/>
+        <v>4.7036374221091446E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8">
         <v>559</v>
@@ -7619,10 +8871,24 @@
         <f t="shared" si="9"/>
         <v>2.1592697392118377E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V20" s="8">
+        <v>1999</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="10"/>
+        <v>2.3165235690918509E-3</v>
+      </c>
+      <c r="X20" s="8">
+        <v>1960</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="11"/>
+        <v>2.1130252916190515E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8">
         <v>952</v>
@@ -7694,10 +8960,24 @@
         <f t="shared" si="9"/>
         <v>4.2867571852060167E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V21" s="8">
+        <v>3837</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="10"/>
+        <v>4.4464737041547938E-3</v>
+      </c>
+      <c r="X21" s="8">
+        <v>3650</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="11"/>
+        <v>3.9349705685762957E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8">
         <v>987</v>
@@ -7769,10 +9049,24 @@
         <f t="shared" si="9"/>
         <v>5.222890185435234E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V22" s="8">
+        <v>4422</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="10"/>
+        <v>5.1243958091666654E-3</v>
+      </c>
+      <c r="X22" s="8">
+        <v>4567</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="11"/>
+        <v>4.9235645442980659E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8">
         <v>1533</v>
@@ -7844,10 +9138,24 @@
         <f t="shared" si="9"/>
         <v>1.4575552289577142E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V23" s="8">
+        <v>11728</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="10"/>
+        <v>1.3590889653981605E-2</v>
+      </c>
+      <c r="X23" s="8">
+        <v>13144</v>
+      </c>
+      <c r="Y23" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4170206343388171E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8">
         <v>2306</v>
@@ -7919,10 +9227,24 @@
         <f t="shared" si="9"/>
         <v>2.2009719603125838E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V24" s="8">
+        <v>17929</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" si="10"/>
+        <v>2.0776863967107453E-2</v>
+      </c>
+      <c r="X24" s="8">
+        <v>20683</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="11"/>
+        <v>2.229780719722288E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="8">
         <v>4125</v>
@@ -7994,10 +9316,24 @@
         <f t="shared" si="9"/>
         <v>4.2461143738791923E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V25" s="8">
+        <v>37205</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="10"/>
+        <v>4.3114687037549934E-2</v>
+      </c>
+      <c r="X25" s="8">
+        <v>40771</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="11"/>
+        <v>4.3954160288061407E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="8">
         <v>518</v>
@@ -8069,10 +9405,24 @@
         <f t="shared" si="9"/>
         <v>3.4710116592861118E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V26" s="8">
+        <v>3840</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" si="10"/>
+        <v>4.4499502277702387E-3</v>
+      </c>
+      <c r="X26" s="8">
+        <v>3119</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="11"/>
+        <v>3.3625132064080726E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="8">
         <v>3255</v>
@@ -8144,10 +9494,24 @@
         <f t="shared" si="9"/>
         <v>2.0173088295062959E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V27" s="8">
+        <v>17331</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" si="10"/>
+        <v>2.008387692642865E-2</v>
+      </c>
+      <c r="X27" s="8">
+        <v>19159</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0654822225576231E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="8">
         <v>2128</v>
@@ -8219,10 +9583,24 @@
         <f t="shared" si="9"/>
         <v>1.028783200457665E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V28" s="8">
+        <v>8468</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="10"/>
+        <v>9.8130673251974956E-3</v>
+      </c>
+      <c r="X28" s="8">
+        <v>9042</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" si="11"/>
+        <v>9.7479462687854422E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8">
         <v>65</v>
@@ -8294,10 +9672,24 @@
         <f t="shared" si="9"/>
         <v>2.263284517015084E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V29" s="8">
+        <v>210</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4335665308118494E-4</v>
+      </c>
+      <c r="X29" s="8">
+        <v>202</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="11"/>
+        <v>2.1777097393216758E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="8">
         <v>1255</v>
@@ -8369,10 +9761,24 @@
         <f t="shared" si="9"/>
         <v>8.1661231573493184E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V30" s="8">
+        <v>6955</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" si="10"/>
+        <v>8.0597405818078147E-3</v>
+      </c>
+      <c r="X30" s="8">
+        <v>7440</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="11"/>
+        <v>8.0208715151253804E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="8">
         <v>195</v>
@@ -8444,10 +9850,24 @@
         <f t="shared" si="9"/>
         <v>1.4330924941780617E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V31" s="8">
+        <v>785</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" si="10"/>
+        <v>9.0969034604157224E-4</v>
+      </c>
+      <c r="X31" s="8">
+        <v>783</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="11"/>
+        <v>8.4413204251924359E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8">
         <v>423</v>
@@ -8519,10 +9939,24 @@
         <f t="shared" si="9"/>
         <v>1.9897641753843249E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V32" s="8">
+        <v>1804</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="10"/>
+        <v>2.0905495340878934E-3</v>
+      </c>
+      <c r="X32" s="8">
+        <v>1886</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0332478061191486E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8">
         <v>792</v>
@@ -8594,10 +10028,24 @@
         <f t="shared" si="9"/>
         <v>2.9172292774632723E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V33" s="8">
+        <v>2421</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" si="10"/>
+        <v>2.8055545576645179E-3</v>
+      </c>
+      <c r="X33" s="8">
+        <v>2281</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4590870868280903E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8">
         <v>1165</v>
@@ -8669,10 +10117,24 @@
         <f t="shared" si="9"/>
         <v>5.3269049632384807E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V34" s="8">
+        <v>4628</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" si="10"/>
+        <v>5.3631170974272569E-3</v>
+      </c>
+      <c r="X34" s="8">
+        <v>4814</v>
+      </c>
+      <c r="Y34" s="7">
+        <f t="shared" si="11"/>
+        <v>5.1898488540072013E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" s="8">
         <v>660</v>
@@ -8744,10 +10206,24 @@
         <f t="shared" si="9"/>
         <v>2.7101628216512539E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V35" s="8">
+        <v>2481</v>
+      </c>
+      <c r="W35" s="7">
+        <f t="shared" si="10"/>
+        <v>2.8750850299734277E-3</v>
+      </c>
+      <c r="X35" s="8">
+        <v>2444</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6348131697535521E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="8">
         <v>324</v>
@@ -8819,10 +10295,24 @@
         <f t="shared" si="9"/>
         <v>1.1576459529583536E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V36" s="8">
+        <v>991</v>
+      </c>
+      <c r="W36" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1484116343021631E-3</v>
+      </c>
+      <c r="X36" s="8">
+        <v>975</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0511222751676404E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8">
         <v>2428</v>
@@ -8894,10 +10384,24 @@
         <f t="shared" si="9"/>
         <v>1.692070028912256E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V37" s="8">
+        <v>14108</v>
+      </c>
+      <c r="W37" s="7">
+        <f t="shared" si="10"/>
+        <v>1.6348931722235033E-2</v>
+      </c>
+      <c r="X37" s="8">
+        <v>15432</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6636839949114902E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="8">
         <v>3700</v>
@@ -8969,10 +10473,24 @@
         <f t="shared" si="9"/>
         <v>3.7185283064660596E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V38" s="8">
+        <v>30945</v>
+      </c>
+      <c r="W38" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5860341093320321E-2</v>
+      </c>
+      <c r="X38" s="8">
+        <v>35570</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8347096746372281E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8">
         <v>1519</v>
@@ -9044,10 +10562,24 @@
         <f t="shared" si="9"/>
         <v>6.244739067372683E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V39" s="8">
+        <v>4882</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" si="10"/>
+        <v>5.657462763534976E-3</v>
+      </c>
+      <c r="X39" s="8">
+        <v>5615</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="11"/>
+        <v>6.0533862308372322E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="8">
         <v>1227</v>
@@ -9119,10 +10651,24 @@
         <f t="shared" si="9"/>
         <v>9.5578023603649764E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V40" s="8">
+        <v>7860</v>
+      </c>
+      <c r="W40" s="7">
+        <f t="shared" si="10"/>
+        <v>9.1084918724672077E-3</v>
+      </c>
+      <c r="X40" s="8">
+        <v>8855</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" si="11"/>
+        <v>9.5463464067789307E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="8">
         <v>3842</v>
@@ -9194,10 +10740,24 @@
         <f t="shared" si="9"/>
         <v>2.9073093495801849E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V41" s="8">
+        <v>26317</v>
+      </c>
+      <c r="W41" s="7">
+        <f t="shared" si="10"/>
+        <v>3.0497223995893066E-2</v>
+      </c>
+      <c r="X41" s="8">
+        <v>27566</v>
+      </c>
+      <c r="Y41" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9718191422842235E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="8">
         <v>4506</v>
@@ -9269,10 +10829,24 @@
         <f t="shared" si="9"/>
         <v>2.7840325758874483E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V42" s="8">
+        <v>24348</v>
+      </c>
+      <c r="W42" s="7">
+        <f t="shared" si="10"/>
+        <v>2.8215465662955672E-2</v>
+      </c>
+      <c r="X42" s="8">
+        <v>25473</v>
+      </c>
+      <c r="Y42" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7461782272149033E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="8">
         <v>1639</v>
@@ -9344,10 +10918,24 @@
         <f t="shared" si="9"/>
         <v>7.445724511082389E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V43" s="8">
+        <v>6687</v>
+      </c>
+      <c r="W43" s="7">
+        <f t="shared" si="10"/>
+        <v>7.7491711388280177E-3</v>
+      </c>
+      <c r="X43" s="8">
+        <v>6831</v>
+      </c>
+      <c r="Y43" s="7">
+        <f t="shared" si="11"/>
+        <v>7.3643243709437464E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="8">
         <v>561</v>
@@ -9419,10 +11007,24 @@
         <f t="shared" si="9"/>
         <v>2.2382439223587471E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V44" s="8">
+        <v>2221</v>
+      </c>
+      <c r="W44" s="7">
+        <f t="shared" si="10"/>
+        <v>2.573786316634818E-3</v>
+      </c>
+      <c r="X44" s="8">
+        <v>1788</v>
+      </c>
+      <c r="Y44" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9275965415381962E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="8">
         <v>1084</v>
@@ -9494,10 +11096,24 @@
         <f t="shared" si="9"/>
         <v>7.5189200954624514E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V45" s="8">
+        <v>5769</v>
+      </c>
+      <c r="W45" s="7">
+        <f t="shared" si="10"/>
+        <v>6.685354912501695E-3</v>
+      </c>
+      <c r="X45" s="8">
+        <v>6935</v>
+      </c>
+      <c r="Y45" s="7">
+        <f t="shared" si="11"/>
+        <v>7.4764440802949613E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8">
         <v>559</v>
@@ -9569,10 +11185,24 @@
         <f t="shared" si="9"/>
         <v>2.6986056241175599E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V46" s="8">
+        <v>2191</v>
+      </c>
+      <c r="W46" s="7">
+        <f t="shared" si="10"/>
+        <v>2.5390210804803631E-3</v>
+      </c>
+      <c r="X46" s="8">
+        <v>2256</v>
+      </c>
+      <c r="Y46" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4321352336186637E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="8">
         <v>1488</v>
@@ -9644,10 +11274,24 @@
         <f t="shared" si="9"/>
         <v>1.4011175810015082E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V47" s="8">
+        <v>12495</v>
+      </c>
+      <c r="W47" s="7">
+        <f t="shared" si="10"/>
+        <v>1.4479720858330504E-2</v>
+      </c>
+      <c r="X47" s="8">
+        <v>13393</v>
+      </c>
+      <c r="Y47" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4438646801354061E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8">
         <v>6333</v>
@@ -9719,10 +11363,24 @@
         <f t="shared" si="9"/>
         <v>5.5668131220420795E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V48" s="8">
+        <v>46806</v>
+      </c>
+      <c r="W48" s="7">
+        <f t="shared" si="10"/>
+        <v>5.4240721448180679E-2</v>
+      </c>
+      <c r="X48" s="8">
+        <v>54403</v>
+      </c>
+      <c r="Y48" s="7">
+        <f t="shared" si="11"/>
+        <v>5.865046680609759E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="8">
         <v>165</v>
@@ -9794,10 +11452,24 @@
         <f t="shared" si="9"/>
         <v>8.3693372139834383E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V49" s="8">
+        <v>748</v>
+      </c>
+      <c r="W49" s="7">
+        <f t="shared" si="10"/>
+        <v>8.6681322145107777E-4</v>
+      </c>
+      <c r="X49" s="8">
+        <v>703</v>
+      </c>
+      <c r="Y49" s="7">
+        <f t="shared" si="11"/>
+        <v>7.5788611224907824E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="8">
         <v>2685</v>
@@ -9869,10 +11541,24 @@
         <f t="shared" si="9"/>
         <v>2.1661077477526065E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V50" s="8">
+        <v>19618</v>
+      </c>
+      <c r="W50" s="7">
+        <f t="shared" si="10"/>
+        <v>2.2734146762603269E-2</v>
+      </c>
+      <c r="X50" s="8">
+        <v>20448</v>
+      </c>
+      <c r="Y50" s="7">
+        <f t="shared" si="11"/>
+        <v>2.2044459777054271E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="8">
         <v>1371</v>
@@ -9944,10 +11630,24 @@
         <f t="shared" si="9"/>
         <v>6.1339825910081153E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V51" s="8">
+        <v>5411</v>
+      </c>
+      <c r="W51" s="7">
+        <f t="shared" si="10"/>
+        <v>6.2704897610585319E-3</v>
+      </c>
+      <c r="X51" s="8">
+        <v>5259</v>
+      </c>
+      <c r="Y51" s="7">
+        <f t="shared" si="11"/>
+        <v>5.6695918411349966E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="8">
         <v>381</v>
@@ -10019,10 +11719,24 @@
         <f t="shared" si="9"/>
         <v>2.7034211230899325E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V52" s="8">
+        <v>2079</v>
+      </c>
+      <c r="W52" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4092308655037308E-3</v>
+      </c>
+      <c r="X52" s="8">
+        <v>2387</v>
+      </c>
+      <c r="Y52" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5733629444360594E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="8">
         <v>15685</v>
@@ -10094,10 +11808,24 @@
         <f t="shared" si="9"/>
         <v>0.12909678575074593</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V53" s="8">
+        <v>115726</v>
+      </c>
+      <c r="W53" s="7">
+        <f t="shared" si="10"/>
+        <v>0.13410805730701528</v>
+      </c>
+      <c r="X53" s="8">
+        <v>126349</v>
+      </c>
+      <c r="Y53" s="7">
+        <f t="shared" si="11"/>
+        <v>0.13621358804631406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B54" s="8">
         <v>355</v>
@@ -10169,10 +11897,24 @@
         <f t="shared" si="9"/>
         <v>2.8006942023318573E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V54" s="8">
+        <v>2489</v>
+      </c>
+      <c r="W54" s="7">
+        <f t="shared" si="10"/>
+        <v>2.8843557596146159E-3</v>
+      </c>
+      <c r="X54" s="8">
+        <v>2531</v>
+      </c>
+      <c r="Y54" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7286056189223572E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" s="8">
         <v>251</v>
@@ -10244,10 +11986,24 @@
         <f t="shared" si="9"/>
         <v>7.5025473989563847E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V55" s="8">
+        <v>664</v>
+      </c>
+      <c r="W55" s="7">
+        <f t="shared" si="10"/>
+        <v>7.6947056021860378E-4</v>
+      </c>
+      <c r="X55" s="8">
+        <v>656</v>
+      </c>
+      <c r="Y55" s="7">
+        <f t="shared" si="11"/>
+        <v>7.0721662821535613E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B56" s="8">
         <v>1547</v>
@@ -10319,10 +12075,24 @@
         <f t="shared" si="9"/>
         <v>9.4605292811230507E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V56" s="8">
+        <v>8571</v>
+      </c>
+      <c r="W56" s="7">
+        <f t="shared" si="10"/>
+        <v>9.9324279693277905E-3</v>
+      </c>
+      <c r="X56" s="8">
+        <v>8259</v>
+      </c>
+      <c r="Y56" s="7">
+        <f t="shared" si="11"/>
+        <v>8.903814226266198E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" s="8">
         <v>502</v>
@@ -10394,10 +12164,24 @@
         <f t="shared" si="9"/>
         <v>2.2382439223587471E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V57" s="8">
+        <v>1959</v>
+      </c>
+      <c r="W57" s="7">
+        <f t="shared" si="10"/>
+        <v>2.2701699208859108E-3</v>
+      </c>
+      <c r="X57" s="8">
+        <v>1877</v>
+      </c>
+      <c r="Y57" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0235451389637553E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" s="8">
         <v>1056</v>
@@ -10469,10 +12253,24 @@
         <f t="shared" si="9"/>
         <v>4.6122849157383987E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V58" s="8">
+        <v>3729</v>
+      </c>
+      <c r="W58" s="7">
+        <f t="shared" si="10"/>
+        <v>4.3213188539987556E-3</v>
+      </c>
+      <c r="X58" s="8">
+        <v>4225</v>
+      </c>
+      <c r="Y58" s="7">
+        <f t="shared" si="11"/>
+        <v>4.5548631923931085E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B59" s="8">
         <v>81</v>
@@ -10544,10 +12342,24 @@
         <f t="shared" si="9"/>
         <v>2.3788564923520245E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V59" s="8">
+        <v>254</v>
+      </c>
+      <c r="W59" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9434566610771895E-4</v>
+      </c>
+      <c r="X59" s="8">
+        <v>225</v>
+      </c>
+      <c r="Y59" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4256667888484013E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B60" s="8">
         <v>438</v>
@@ -10619,10 +12431,24 @@
         <f t="shared" si="9"/>
         <v>1.5294024736255121E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V60" s="8">
+        <v>1377</v>
+      </c>
+      <c r="W60" s="7">
+        <f t="shared" si="10"/>
+        <v>1.595724339489484E-3</v>
+      </c>
+      <c r="X60" s="8">
+        <v>1373</v>
+      </c>
+      <c r="Y60" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4801957782617132E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61" s="8">
         <v>647</v>
@@ -10694,10 +12520,24 @@
         <f t="shared" si="9"/>
         <v>2.1255612464052302E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V61" s="8">
+        <v>1828</v>
+      </c>
+      <c r="W61" s="7">
+        <f t="shared" si="10"/>
+        <v>2.1183617230114576E-3</v>
+      </c>
+      <c r="X61" s="8">
+        <v>1818</v>
+      </c>
+      <c r="Y61" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9599387653895083E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62" s="8">
         <v>361</v>
@@ -10769,10 +12609,24 @@
         <f t="shared" si="9"/>
         <v>2.0042106723014426E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V62" s="8">
+        <v>1719</v>
+      </c>
+      <c r="W62" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9920480316502711E-3</v>
+      </c>
+      <c r="X62" s="8">
+        <v>1759</v>
+      </c>
+      <c r="Y62" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8963323918152611E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" s="8">
         <v>614</v>
@@ -10844,10 +12698,24 @@
         <f t="shared" si="9"/>
         <v>2.8411443936997862E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V63" s="8">
+        <v>2277</v>
+      </c>
+      <c r="W63" s="7">
+        <f t="shared" si="10"/>
+        <v>2.6386814241231337E-3</v>
+      </c>
+      <c r="X63" s="8">
+        <v>2400</v>
+      </c>
+      <c r="Y63" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5873779081049611E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B64" s="8">
         <v>482</v>
@@ -10919,10 +12787,24 @@
         <f t="shared" si="9"/>
         <v>1.846262306007624E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V64" s="8">
+        <v>1719</v>
+      </c>
+      <c r="W64" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9920480316502711E-3</v>
+      </c>
+      <c r="X64" s="8">
+        <v>1662</v>
+      </c>
+      <c r="Y64" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7917592013626856E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8">
         <v>2670</v>
@@ -10994,10 +12876,24 @@
         <f t="shared" si="9"/>
         <v>1.6372696506066566E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V65" s="8">
+        <v>13248</v>
+      </c>
+      <c r="W65" s="7">
+        <f t="shared" si="10"/>
+        <v>1.5352328285807324E-2</v>
+      </c>
+      <c r="X65" s="8">
+        <v>15113</v>
+      </c>
+      <c r="Y65" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6292934302162616E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8">
         <v>669</v>
@@ -11069,10 +12965,24 @@
         <f t="shared" si="9"/>
         <v>2.8392181941108373E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V66" s="8">
+        <v>2462</v>
+      </c>
+      <c r="W66" s="7">
+        <f t="shared" si="10"/>
+        <v>2.8530670470756064E-3</v>
+      </c>
+      <c r="X66" s="8">
+        <v>2515</v>
+      </c>
+      <c r="Y66" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7113564328683239E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" s="8">
         <v>4478</v>
@@ -11144,10 +13054,24 @@
         <f t="shared" si="9"/>
         <v>2.8537610010074023E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V67" s="8">
+        <v>22716</v>
+      </c>
+      <c r="W67" s="7">
+        <f t="shared" si="10"/>
+        <v>2.6324236816153319E-2</v>
+      </c>
+      <c r="X67" s="8">
+        <v>25149</v>
+      </c>
+      <c r="Y67" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7112486254554865E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6">
         <v>350</v>
@@ -11219,10 +13143,24 @@
         <f t="shared" si="9"/>
         <v>1.7095021351922444E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V68" s="6">
+        <v>1461</v>
+      </c>
+      <c r="W68" s="7">
+        <f t="shared" si="10"/>
+        <v>1.693067000721958E-3</v>
+      </c>
+      <c r="X68" s="6">
+        <v>1478</v>
+      </c>
+      <c r="Y68" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5933935617413054E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="6">
         <v>3393</v>
@@ -11294,10 +13232,24 @@
         <f t="shared" si="9"/>
         <v>3.1680204639444327E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V69" s="6">
+        <v>25195</v>
+      </c>
+      <c r="W69" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9197004163716449E-2</v>
+      </c>
+      <c r="X69" s="6">
+        <v>27598</v>
+      </c>
+      <c r="Y69" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9752689794950302E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="6">
         <v>7975</v>
@@ -11369,10 +13321,24 @@
         <f t="shared" si="9"/>
         <v>4.3603380095038689E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V70" s="6">
+        <v>42742</v>
+      </c>
+      <c r="W70" s="7">
+        <f t="shared" si="10"/>
+        <v>4.9531190790457175E-2</v>
+      </c>
+      <c r="X70" s="6">
+        <v>40278</v>
+      </c>
+      <c r="Y70" s="7">
+        <f t="shared" si="11"/>
+        <v>4.3422669742771515E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" s="9">
         <v>4262</v>
@@ -11444,96 +13410,128 @@
         <f t="shared" si="9"/>
         <v>3.2615374539879075E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V71" s="9">
+        <v>39312</v>
+      </c>
+      <c r="W71" s="10">
+        <f t="shared" si="10"/>
+        <v>4.5556365456797823E-2</v>
+      </c>
+      <c r="X71" s="9">
+        <v>28238</v>
+      </c>
+      <c r="Y71" s="10">
+        <f t="shared" si="11"/>
+        <v>3.0442657237111623E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" ref="B72:U72" si="10">SUM(B3:B71)</f>
+        <f t="shared" ref="B72:Y72" si="12">SUM(B3:B71)</f>
         <v>139042</v>
       </c>
       <c r="C72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="D72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>576648</v>
       </c>
       <c r="E72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>630145</v>
       </c>
       <c r="G72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1099491</v>
       </c>
       <c r="I72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>952784</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1274128</v>
       </c>
       <c r="M72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1080668</v>
       </c>
       <c r="O72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="P72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1028268</v>
       </c>
       <c r="Q72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="R72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>926157</v>
       </c>
       <c r="S72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="T72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1038314</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000002</v>
       </c>
+      <c r="V72" s="12">
+        <f t="shared" si="12"/>
+        <v>862931</v>
+      </c>
+      <c r="W72" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="X72" s="12">
+        <f t="shared" si="12"/>
+        <v>927580</v>
+      </c>
+      <c r="Y72" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="A1:Y1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -11548,13 +13546,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.65" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/4/2020</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/18/2020</oddHeader>
     <oddFooter>&amp;C&amp;"-,Bold"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationSourceURL xmlns="6c39a429-32ac-4580-b063-011863d2da30" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046B5BB16432BEF42A04770AB0D42A0A1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29bb46a45f7003f1922e680ef0f7161c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6c39a429-32ac-4580-b063-011863d2da30" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbbab97b48321f6bdea650b0ca33d1e4" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11697,27 +13714,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationSourceURL xmlns="6c39a429-32ac-4580-b063-011863d2da30" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9272C214-836E-40A1-803F-560036B22071}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c39a429-32ac-4580-b063-011863d2da30"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3963659B-3CE8-4C9B-A87A-1480D2CE0F86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8587F3B-5C15-4366-89C9-2C6AB8418094}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E43312-794F-40F2-92FD-F3A53117FB21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11733,23 +13750,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F492AFB-74A9-48EF-AB04-787D656F9999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c39a429-32ac-4580-b063-011863d2da30"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75083281-39D1-4BE3-ABCD-D378230F1379}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initial_claims/PA/PA_data.xlsx
+++ b/initial_claims/PA/PA_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83995EAC-5814-6948-A956-B2CECD6CD64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D378043-681A-1B4A-AF8D-5B8B88FBF3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25940" yWindow="5160" windowWidth="20100" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC by County and Week" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t>UC Initial Claims by County and Week</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>WE 6/13/2020</t>
+  </si>
+  <si>
+    <t>WE 6/20/2020</t>
   </si>
   <si>
     <t>Adams County</t>
@@ -809,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,7 +825,7 @@
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -850,8 +853,10 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,10 +908,14 @@
         <v>13</v>
       </c>
       <c r="Y2" s="15"/>
+      <c r="Z2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="15"/>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>1127</v>
@@ -992,10 +1001,17 @@
         <f>X3/X$72</f>
         <v>6.003109807703663E-3</v>
       </c>
+      <c r="Z3" s="3">
+        <v>202</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>Z3/Z$72</f>
+        <v>4.2070186400083309E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>12140</v>
@@ -1081,10 +1097,17 @@
         <f>X4/X$72</f>
         <v>4.9875017222036334E-2</v>
       </c>
+      <c r="Z4" s="6">
+        <v>2116</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>Z4/Z$72</f>
+        <v>4.4069561595334789E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8">
         <v>947</v>
@@ -1170,10 +1193,17 @@
         <f>X5/X$72</f>
         <v>5.7669218808431913E-3</v>
       </c>
+      <c r="Z5" s="8">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="7">
+        <f>Z5/Z$72</f>
+        <v>4.1653649901072579E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8">
         <v>2283</v>
@@ -1259,10 +1289,17 @@
         <f>X6/X$72</f>
         <v>1.4446828192965536E-2</v>
       </c>
+      <c r="Z6" s="8">
+        <v>451</v>
+      </c>
+      <c r="AA6" s="7">
+        <f>Z6/Z$72</f>
+        <v>9.3928980526918667E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8">
         <v>506</v>
@@ -1348,10 +1385,17 @@
         <f>X7/X$72</f>
         <v>3.9561477749129057E-3</v>
       </c>
+      <c r="Z7" s="8">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="7">
+        <f>Z7/Z$72</f>
+        <v>3.9154430907008229E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <v>5766</v>
@@ -1437,10 +1481,17 @@
         <f t="shared" ref="Y8:Y71" si="10">X8/X$72</f>
         <v>2.1709606943925049E-2</v>
       </c>
+      <c r="Z8" s="8">
+        <v>988</v>
+      </c>
+      <c r="AA8" s="7">
+        <f t="shared" ref="AA8:AA71" si="11">Z8/Z$72</f>
+        <v>2.0576903051129854E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8">
         <v>1815</v>
@@ -1526,10 +1577,17 @@
         <f t="shared" si="10"/>
         <v>8.5027653669769911E-3</v>
       </c>
+      <c r="Z9" s="8">
+        <v>347</v>
+      </c>
+      <c r="AA9" s="7">
+        <f t="shared" si="11"/>
+        <v>7.2269082578360925E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8">
         <v>436</v>
@@ -1615,10 +1673,17 @@
         <f t="shared" si="10"/>
         <v>2.5193378865117013E-3</v>
       </c>
+      <c r="Z10" s="8">
+        <v>111</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="11"/>
+        <v>2.3117775695095282E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8">
         <v>5760</v>
@@ -1704,10 +1769,17 @@
         <f t="shared" si="10"/>
         <v>2.4976873265494911E-2</v>
       </c>
+      <c r="Z11" s="8">
+        <v>1288</v>
+      </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6824950536290741E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8">
         <v>2133</v>
@@ -1793,10 +1865,17 @@
         <f t="shared" si="10"/>
         <v>1.0156080855000296E-2</v>
       </c>
+      <c r="Z12" s="8">
+        <v>330</v>
+      </c>
+      <c r="AA12" s="7">
+        <f t="shared" si="11"/>
+        <v>6.8728522336769758E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8">
         <v>1689</v>
@@ -1882,10 +1961,17 @@
         <f t="shared" si="10"/>
         <v>9.4081524199421344E-3</v>
       </c>
+      <c r="Z13" s="8">
+        <v>435</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="11"/>
+        <v>9.0596688534832857E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8">
         <v>117</v>
@@ -1971,10 +2057,17 @@
         <f t="shared" si="10"/>
         <v>1.1612573070639873E-3</v>
       </c>
+      <c r="Z14" s="8">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="11"/>
+        <v>9.1638029782359679E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
         <v>932</v>
@@ -2060,10 +2153,17 @@
         <f t="shared" si="10"/>
         <v>3.0901253764245083E-3</v>
       </c>
+      <c r="Z15" s="8">
+        <v>127</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6450067687181088E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8">
         <v>1025</v>
@@ -2149,10 +2249,17 @@
         <f t="shared" si="10"/>
         <v>4.152971047296632E-3</v>
       </c>
+      <c r="Z16" s="8">
+        <v>197</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="11"/>
+        <v>4.1028845152556491E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8">
         <v>3869</v>
@@ -2238,10 +2345,17 @@
         <f t="shared" si="10"/>
         <v>2.0666443600291299E-2</v>
       </c>
+      <c r="Z17" s="8">
+        <v>774</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6119962511715089E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8">
         <v>717</v>
@@ -2327,10 +2441,17 @@
         <f t="shared" si="10"/>
         <v>2.0075973783140119E-3</v>
       </c>
+      <c r="Z18" s="8">
+        <v>94</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9577215453504115E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="8">
         <v>1166</v>
@@ -2416,10 +2537,17 @@
         <f t="shared" si="10"/>
         <v>4.8615348278780481E-3</v>
       </c>
+      <c r="Z19" s="8">
+        <v>241</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="11"/>
+        <v>5.0192648130792461E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8">
         <v>427</v>
@@ -2505,10 +2633,17 @@
         <f t="shared" si="10"/>
         <v>1.8107741059302852E-3</v>
       </c>
+      <c r="Z20" s="8">
+        <v>68</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4162240966364677E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="8">
         <v>804</v>
@@ -2594,10 +2729,17 @@
         <f t="shared" si="10"/>
         <v>4.4088413013954773E-3</v>
       </c>
+      <c r="Z21" s="8">
+        <v>152</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="11"/>
+        <v>3.165677392481516E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="8">
         <v>1220</v>
@@ -2683,10 +2825,17 @@
         <f t="shared" si="10"/>
         <v>6.4558033341862338E-3</v>
       </c>
+      <c r="Z22" s="8">
+        <v>242</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="11"/>
+        <v>5.0400916380297827E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="8">
         <v>2124</v>
@@ -2772,10 +2921,17 @@
         <f t="shared" si="10"/>
         <v>1.2498277796366643E-2</v>
       </c>
+      <c r="Z23" s="8">
+        <v>518</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0788295324377799E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8">
         <v>2967</v>
@@ -2861,10 +3017,17 @@
         <f t="shared" si="10"/>
         <v>1.5844273426889995E-2</v>
       </c>
+      <c r="Z24" s="8">
+        <v>591</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="11"/>
+        <v>1.2308653545766948E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8">
         <v>4932</v>
@@ -2950,10 +3113,17 @@
         <f t="shared" si="10"/>
         <v>2.7338752534099633E-2</v>
       </c>
+      <c r="Z25" s="8">
+        <v>1169</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4346558367176925E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="8">
         <v>917</v>
@@ -3039,10 +3209,17 @@
         <f t="shared" si="10"/>
         <v>6.4164386797094892E-3</v>
       </c>
+      <c r="Z26" s="8">
+        <v>237</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="11"/>
+        <v>4.9359575132771009E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="8">
         <v>3366</v>
@@ -3128,10 +3305,17 @@
         <f t="shared" si="10"/>
         <v>1.928868069360521E-2</v>
       </c>
+      <c r="Z27" s="8">
+        <v>753</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5682599187753828E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="8">
         <v>1944</v>
@@ -3217,10 +3401,17 @@
         <f t="shared" si="10"/>
         <v>9.2900584565118981E-3</v>
       </c>
+      <c r="Z28" s="8">
+        <v>279</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="11"/>
+        <v>5.8106841611996248E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="8">
         <v>70</v>
@@ -3306,10 +3497,17 @@
         <f t="shared" si="10"/>
         <v>3.1491723581396266E-4</v>
       </c>
+      <c r="Z29" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="11"/>
+        <v>3.3322919920858067E-4</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8">
         <v>1038</v>
@@ -3395,10 +3593,17 @@
         <f t="shared" si="10"/>
         <v>1.0530045072529377E-2</v>
       </c>
+      <c r="Z30" s="8">
+        <v>409</v>
+      </c>
+      <c r="AA30" s="7">
+        <f t="shared" si="11"/>
+        <v>8.5181714047693428E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8">
         <v>117</v>
@@ -3484,10 +3689,17 @@
         <f t="shared" si="10"/>
         <v>1.2006219615407325E-3</v>
       </c>
+      <c r="Z31" s="8">
+        <v>138</v>
+      </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="11"/>
+        <v>2.874101843174008E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="8">
         <v>298</v>
@@ -3573,10 +3785,17 @@
         <f t="shared" si="10"/>
         <v>1.9682327238372665E-3</v>
       </c>
+      <c r="Z32" s="8">
+        <v>104</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="11"/>
+        <v>2.1659897948557742E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="8">
         <v>551</v>
@@ -3662,10 +3881,17 @@
         <f t="shared" si="10"/>
         <v>3.3263133032849805E-3</v>
       </c>
+      <c r="Z33" s="8">
+        <v>215</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="11"/>
+        <v>4.4777673643653024E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="8">
         <v>820</v>
@@ -3751,10 +3977,17 @@
         <f t="shared" si="10"/>
         <v>6.0818391166571539E-3</v>
       </c>
+      <c r="Z34" s="8">
+        <v>169</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="11"/>
+        <v>3.5197334166406332E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="8">
         <v>604</v>
@@ -3840,10 +4073,17 @@
         <f t="shared" si="10"/>
         <v>3.7002775208140612E-3</v>
       </c>
+      <c r="Z35" s="8">
+        <v>194</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="11"/>
+        <v>4.0404040404040404E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="8">
         <v>525</v>
@@ -3929,10 +4169,17 @@
         <f t="shared" si="10"/>
         <v>1.2399866160174779E-3</v>
       </c>
+      <c r="Z36" s="8">
+        <v>72</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="11"/>
+        <v>1.499531396438613E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8">
         <v>2144</v>
@@ -4018,10 +4265,17 @@
         <f t="shared" si="10"/>
         <v>1.1868443324738718E-2</v>
       </c>
+      <c r="Z37" s="8">
+        <v>507</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0559200249921899E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="8">
         <v>7051</v>
@@ -4107,10 +4361,17 @@
         <f t="shared" si="10"/>
         <v>3.6254846773082453E-2</v>
       </c>
+      <c r="Z38" s="8">
+        <v>1001</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0847651775486826E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8">
         <v>908</v>
@@ -4196,10 +4457,17 @@
         <f t="shared" si="10"/>
         <v>5.0780404275001479E-3</v>
       </c>
+      <c r="Z39" s="8">
+        <v>180</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="11"/>
+        <v>3.7488284910965324E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="8">
         <v>1848</v>
@@ -4285,10 +4553,17 @@
         <f t="shared" si="10"/>
         <v>9.1916468203200354E-3</v>
       </c>
+      <c r="Z40" s="8">
+        <v>213</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="11"/>
+        <v>4.4361137144642302E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="8">
         <v>4389</v>
@@ -4374,10 +4649,17 @@
         <f t="shared" si="10"/>
         <v>1.9229633711890095E-2</v>
       </c>
+      <c r="Z41" s="8">
+        <v>924</v>
+      </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9243986254295534E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="8">
         <v>3423</v>
@@ -4463,10 +4745,17 @@
         <f t="shared" si="10"/>
         <v>1.8284882004448205E-2</v>
       </c>
+      <c r="Z42" s="8">
+        <v>779</v>
+      </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6224096636467771E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="8">
         <v>1421</v>
@@ -4552,10 +4841,17 @@
         <f t="shared" si="10"/>
         <v>7.1053201330525317E-3</v>
       </c>
+      <c r="Z43" s="8">
+        <v>242</v>
+      </c>
+      <c r="AA43" s="7">
+        <f t="shared" si="11"/>
+        <v>5.0400916380297827E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="8">
         <v>646</v>
@@ -4641,10 +4937,17 @@
         <f t="shared" si="10"/>
         <v>2.2437853051744837E-3</v>
       </c>
+      <c r="Z44" s="8">
+        <v>91</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8952410704988025E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8">
         <v>1288</v>
@@ -4730,10 +5033,17 @@
         <f t="shared" si="10"/>
         <v>9.860845946424706E-3</v>
       </c>
+      <c r="Z45" s="8">
+        <v>273</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="11"/>
+        <v>5.6857232114964074E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="8">
         <v>641</v>
@@ -4819,10 +5129,17 @@
         <f t="shared" si="10"/>
         <v>2.4799732320349558E-3</v>
       </c>
+      <c r="Z46" s="8">
+        <v>153</v>
+      </c>
+      <c r="AA46" s="7">
+        <f t="shared" si="11"/>
+        <v>3.1865042174320526E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8">
         <v>1626</v>
@@ -4908,10 +5225,17 @@
         <f t="shared" si="10"/>
         <v>7.1840494420060226E-3</v>
       </c>
+      <c r="Z47" s="8">
+        <v>291</v>
+      </c>
+      <c r="AA47" s="7">
+        <f t="shared" si="11"/>
+        <v>6.0606060606060606E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8">
         <v>6506</v>
@@ -4997,10 +5321,17 @@
         <f t="shared" si="10"/>
         <v>3.4522801976105653E-2</v>
       </c>
+      <c r="Z48" s="8">
+        <v>1400</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9157554930750808E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="8">
         <v>149</v>
@@ -5086,10 +5417,17 @@
         <f t="shared" si="10"/>
         <v>5.7078748991280727E-4</v>
       </c>
+      <c r="Z49" s="8">
+        <v>22</v>
+      </c>
+      <c r="AA49" s="7">
+        <f t="shared" si="11"/>
+        <v>4.5819014891179839E-4</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="8">
         <v>2808</v>
@@ -5175,10 +5513,17 @@
         <f t="shared" si="10"/>
         <v>1.2970653650087587E-2</v>
       </c>
+      <c r="Z50" s="8">
+        <v>675</v>
+      </c>
+      <c r="AA50" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4058106841611996E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="8">
         <v>1213</v>
@@ -5264,10 +5609,17 @@
         <f t="shared" si="10"/>
         <v>5.294546027122247E-3</v>
       </c>
+      <c r="Z51" s="8">
+        <v>233</v>
+      </c>
+      <c r="AA51" s="7">
+        <f t="shared" si="11"/>
+        <v>4.8526502134749556E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="8">
         <v>577</v>
@@ -5353,10 +5705,17 @@
         <f t="shared" si="10"/>
         <v>2.4406085775582104E-3</v>
       </c>
+      <c r="Z52" s="8">
+        <v>117</v>
+      </c>
+      <c r="AA52" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4367385192127461E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="8">
         <v>13037</v>
@@ -5442,10 +5801,17 @@
         <f t="shared" si="10"/>
         <v>0.10335190032869486</v>
       </c>
+      <c r="Z53" s="8">
+        <v>4509</v>
+      </c>
+      <c r="AA53" s="7">
+        <f t="shared" si="11"/>
+        <v>9.3908153701968131E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8">
         <v>343</v>
@@ -5531,10 +5897,17 @@
         <f t="shared" si="10"/>
         <v>1.3777629066860865E-3</v>
       </c>
+      <c r="Z54" s="8">
+        <v>72</v>
+      </c>
+      <c r="AA54" s="7">
+        <f t="shared" si="11"/>
+        <v>1.499531396438613E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="8">
         <v>165</v>
@@ -5620,10 +5993,17 @@
         <f t="shared" si="10"/>
         <v>9.8411636191863324E-4</v>
       </c>
+      <c r="Z55" s="8">
+        <v>28</v>
+      </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="11"/>
+        <v>5.8315109861501618E-4</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="8">
         <v>1840</v>
@@ -5709,10 +6089,17 @@
         <f t="shared" si="10"/>
         <v>9.2310114747967808E-3</v>
       </c>
+      <c r="Z56" s="8">
+        <v>327</v>
+      </c>
+      <c r="AA56" s="7">
+        <f t="shared" si="11"/>
+        <v>6.8103717588253671E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8">
         <v>636</v>
@@ -5798,10 +6185,17 @@
         <f t="shared" si="10"/>
         <v>1.77140945145354E-3</v>
       </c>
+      <c r="Z57" s="8">
+        <v>80</v>
+      </c>
+      <c r="AA57" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6661459960429033E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="8">
         <v>887</v>
@@ -5887,10 +6281,17 @@
         <f t="shared" si="10"/>
         <v>6.1408860983722712E-3</v>
       </c>
+      <c r="Z58" s="8">
+        <v>219</v>
+      </c>
+      <c r="AA58" s="7">
+        <f t="shared" si="11"/>
+        <v>4.5610746641674476E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="8">
         <v>52</v>
@@ -5976,10 +6377,17 @@
         <f t="shared" si="10"/>
         <v>3.5428189029070798E-4</v>
       </c>
+      <c r="Z59" s="8">
+        <v>12</v>
+      </c>
+      <c r="AA59" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4992189940643551E-4</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="8">
         <v>211</v>
@@ -6065,10 +6473,17 @@
         <f t="shared" si="10"/>
         <v>1.0431633436337512E-3</v>
       </c>
+      <c r="Z60" s="8">
+        <v>46</v>
+      </c>
+      <c r="AA60" s="7">
+        <f t="shared" si="11"/>
+        <v>9.5803394772466942E-4</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="8">
         <v>396</v>
@@ -6154,10 +6569,17 @@
         <f t="shared" si="10"/>
         <v>2.401243923081465E-3</v>
       </c>
+      <c r="Z61" s="8">
+        <v>115</v>
+      </c>
+      <c r="AA61" s="7">
+        <f t="shared" si="11"/>
+        <v>2.3950848693116734E-3</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="8">
         <v>503</v>
@@ -6243,10 +6665,17 @@
         <f t="shared" si="10"/>
         <v>1.8107741059302852E-3</v>
       </c>
+      <c r="Z62" s="8">
+        <v>74</v>
+      </c>
+      <c r="AA62" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5411850463396856E-3</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="8">
         <v>607</v>
@@ -6332,10 +6761,17 @@
         <f t="shared" si="10"/>
         <v>4.2317003562501228E-3</v>
       </c>
+      <c r="Z63" s="8">
+        <v>186</v>
+      </c>
+      <c r="AA63" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8737894407997499E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="8">
         <v>333</v>
@@ -6421,10 +6857,17 @@
         <f t="shared" si="10"/>
         <v>2.4406085775582104E-3</v>
       </c>
+      <c r="Z64" s="8">
+        <v>126</v>
+      </c>
+      <c r="AA64" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6241799437675727E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="8">
         <v>2438</v>
@@ -6510,10 +6953,17 @@
         <f t="shared" si="10"/>
         <v>1.0923691617296829E-2</v>
       </c>
+      <c r="Z65" s="8">
+        <v>492</v>
+      </c>
+      <c r="AA65" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0246797875663856E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="8">
         <v>448</v>
@@ -6599,10 +7049,17 @@
         <f t="shared" si="10"/>
         <v>1.3974452339244592E-3</v>
       </c>
+      <c r="Z66" s="8">
+        <v>86</v>
+      </c>
+      <c r="AA66" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7911069457461209E-3</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="8">
         <v>4865</v>
@@ -6688,10 +7145,17 @@
         <f t="shared" si="10"/>
         <v>2.3540063377093707E-2</v>
       </c>
+      <c r="Z67" s="8">
+        <v>834</v>
+      </c>
+      <c r="AA67" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7369572008747267E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="6">
         <v>290</v>
@@ -6777,10 +7241,17 @@
         <f t="shared" si="10"/>
         <v>1.1612573070639873E-3</v>
       </c>
+      <c r="Z68" s="6">
+        <v>42</v>
+      </c>
+      <c r="AA68" s="7">
+        <f t="shared" si="11"/>
+        <v>8.7472664792252416E-4</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="6">
         <v>5441</v>
@@ -6866,10 +7337,17 @@
         <f t="shared" si="10"/>
         <v>2.4347038793866987E-2</v>
       </c>
+      <c r="Z69" s="6">
+        <v>1058</v>
+      </c>
+      <c r="AA69" s="7">
+        <f t="shared" si="11"/>
+        <v>2.2034780797667394E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="6">
         <v>7114</v>
@@ -6955,10 +7433,17 @@
         <f t="shared" si="10"/>
         <v>4.3360166906134978E-2</v>
       </c>
+      <c r="Z70" s="6">
+        <v>3907</v>
+      </c>
+      <c r="AA70" s="7">
+        <f t="shared" si="11"/>
+        <v>8.1370405081745284E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="9">
         <v>133996</v>
@@ -7044,111 +7529,126 @@
         <f t="shared" si="10"/>
         <v>0.25057570807172241</v>
       </c>
+      <c r="Z71" s="9">
+        <v>15242</v>
+      </c>
+      <c r="AA71" s="10">
+        <f t="shared" si="11"/>
+        <v>0.31744246589607417</v>
+      </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" ref="B72:I72" si="11">SUM(B3:B71)</f>
+        <f t="shared" ref="B72:I72" si="12">SUM(B3:B71)</f>
         <v>275392</v>
       </c>
       <c r="C72" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D72" s="12">
-        <f t="shared" si="11"/>
-        <v>390753</v>
-      </c>
-      <c r="E72" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F72" s="12">
-        <f t="shared" si="11"/>
-        <v>273648</v>
-      </c>
-      <c r="G72" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H72" s="12">
-        <f t="shared" si="11"/>
-        <v>153136</v>
-      </c>
-      <c r="I72" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="12">
-        <f t="shared" ref="J72:Y72" si="12">SUM(J3:J71)</f>
-        <v>112964</v>
-      </c>
-      <c r="K72" s="13">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L72" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="12"/>
-        <v>74203</v>
-      </c>
-      <c r="M72" s="13">
+        <v>390753</v>
+      </c>
+      <c r="E72" s="13">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="N72" s="12">
+      <c r="F72" s="12">
         <f t="shared" si="12"/>
-        <v>72206</v>
-      </c>
-      <c r="O72" s="13">
+        <v>273648</v>
+      </c>
+      <c r="G72" s="13">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P72" s="12">
+      <c r="H72" s="12">
         <f t="shared" si="12"/>
-        <v>46201</v>
-      </c>
-      <c r="Q72" s="13">
+        <v>153136</v>
+      </c>
+      <c r="I72" s="13">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
+      <c r="J72" s="12">
+        <f t="shared" ref="J72:AA72" si="13">SUM(J3:J71)</f>
+        <v>112964</v>
+      </c>
+      <c r="K72" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="12">
+        <f t="shared" si="13"/>
+        <v>74203</v>
+      </c>
+      <c r="M72" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" si="13"/>
+        <v>72206</v>
+      </c>
+      <c r="O72" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P72" s="12">
+        <f t="shared" si="13"/>
+        <v>46201</v>
+      </c>
+      <c r="Q72" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
       <c r="R72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>60011</v>
       </c>
       <c r="S72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="T72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44810</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="V72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48613</v>
       </c>
       <c r="W72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="X72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50807</v>
       </c>
       <c r="Y72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
+      <c r="Z72" s="12">
+        <f t="shared" si="13"/>
+        <v>48015</v>
+      </c>
+      <c r="AA72" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -7162,12 +7662,8 @@
       <c r="K74" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A1:Y1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -7177,12 +7673,17 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A74:K74"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.65" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/18/2020</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/25/2020</oddHeader>
     <oddFooter>&amp;C&amp;"-,Bold"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -7190,10 +7691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7202,9 +7703,9 @@
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -7230,8 +7731,10 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7283,10 +7786,14 @@
         <v>13</v>
       </c>
       <c r="Y2" s="15"/>
+      <c r="Z2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="15"/>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>599</v>
@@ -7372,10 +7879,17 @@
         <f>X3/X$72</f>
         <v>6.3056555768774662E-3</v>
       </c>
+      <c r="Z3" s="3">
+        <v>4177</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>Z3/Z$72</f>
+        <v>6.5800252047889096E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>12499</v>
@@ -7461,10 +7975,17 @@
         <f>X4/X$72</f>
         <v>9.6767933763125549E-2</v>
       </c>
+      <c r="Z4" s="6">
+        <v>56142</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>Z4/Z$72</f>
+        <v>8.8440453686200377E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8">
         <v>1178</v>
@@ -7550,10 +8071,17 @@
         <f>X5/X$72</f>
         <v>4.7198085340348006E-3</v>
       </c>
+      <c r="Z5" s="8">
+        <v>2711</v>
+      </c>
+      <c r="AA5" s="7">
+        <f>Z5/Z$72</f>
+        <v>4.2706364209199746E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8">
         <v>1985</v>
@@ -7639,10 +8167,17 @@
         <f>X6/X$72</f>
         <v>1.4350244722827142E-2</v>
       </c>
+      <c r="Z6" s="8">
+        <v>9056</v>
+      </c>
+      <c r="AA6" s="7">
+        <f>Z6/Z$72</f>
+        <v>1.4265910522999369E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8">
         <v>592</v>
@@ -7728,10 +8263,17 @@
         <f>X7/X$72</f>
         <v>2.9851872614760993E-3</v>
       </c>
+      <c r="Z7" s="8">
+        <v>1678</v>
+      </c>
+      <c r="AA7" s="7">
+        <f>Z7/Z$72</f>
+        <v>2.6433522369250159E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <v>4319</v>
@@ -7817,10 +8359,17 @@
         <f t="shared" ref="Y8:Y71" si="11">X8/X$72</f>
         <v>3.3318959011621636E-2</v>
       </c>
+      <c r="Z8" s="8">
+        <v>21683</v>
+      </c>
+      <c r="AA8" s="7">
+        <f t="shared" ref="AA8:AA71" si="12">Z8/Z$72</f>
+        <v>3.4157214870825459E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8">
         <v>1248</v>
@@ -7906,10 +8455,17 @@
         <f t="shared" si="11"/>
         <v>9.0202462321309212E-3</v>
       </c>
+      <c r="Z9" s="8">
+        <v>5477</v>
+      </c>
+      <c r="AA9" s="7">
+        <f t="shared" si="12"/>
+        <v>8.6279143037177059E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8">
         <v>586</v>
@@ -7995,10 +8551,17 @@
         <f t="shared" si="11"/>
         <v>2.2143642596864962E-3</v>
       </c>
+      <c r="Z10" s="8">
+        <v>1509</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="12"/>
+        <v>2.3771266540642722E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8">
         <v>4815</v>
@@ -8084,10 +8647,17 @@
         <f t="shared" si="11"/>
         <v>4.5892537570883372E-2</v>
       </c>
+      <c r="Z11" s="8">
+        <v>27550</v>
+      </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="12"/>
+        <v>4.3399495904221805E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8">
         <v>2182</v>
@@ -8173,10 +8743,17 @@
         <f t="shared" si="11"/>
         <v>1.2925030725112658E-2</v>
       </c>
+      <c r="Z12" s="8">
+        <v>7028</v>
+      </c>
+      <c r="AA12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.1071203528670448E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8">
         <v>1724</v>
@@ -8262,10 +8839,17 @@
         <f t="shared" si="11"/>
         <v>8.3928070894154685E-3</v>
       </c>
+      <c r="Z13" s="8">
+        <v>5381</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="12"/>
+        <v>8.4766855702583487E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8">
         <v>96</v>
@@ -8351,10 +8935,17 @@
         <f t="shared" si="11"/>
         <v>4.4308846676297464E-4</v>
       </c>
+      <c r="Z14" s="8">
+        <v>244</v>
+      </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="12"/>
+        <v>3.843730308758664E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
         <v>889</v>
@@ -8440,10 +9031,17 @@
         <f t="shared" si="11"/>
         <v>4.9160180253994268E-3</v>
       </c>
+      <c r="Z15" s="8">
+        <v>3025</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="12"/>
+        <v>4.7652804032766224E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8">
         <v>1062</v>
@@ -8529,10 +9127,17 @@
         <f t="shared" si="11"/>
         <v>6.5126458095258631E-3</v>
       </c>
+      <c r="Z16" s="8">
+        <v>4723</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="12"/>
+        <v>7.4401386263390048E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8">
         <v>3013</v>
@@ -8618,10 +9223,17 @@
         <f t="shared" si="11"/>
         <v>2.9607149787619396E-2</v>
       </c>
+      <c r="Z17" s="8">
+        <v>17855</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="12"/>
+        <v>2.8126969124133587E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8">
         <v>526</v>
@@ -8707,10 +9319,17 @@
         <f t="shared" si="11"/>
         <v>1.798227646132948E-3</v>
       </c>
+      <c r="Z18" s="8">
+        <v>1143</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="12"/>
+        <v>1.8005671077504725E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="8">
         <v>1183</v>
@@ -8796,10 +9415,17 @@
         <f t="shared" si="11"/>
         <v>4.7036374221091446E-3</v>
       </c>
+      <c r="Z19" s="8">
+        <v>3261</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="12"/>
+        <v>5.1370510396975422E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8">
         <v>559</v>
@@ -8885,10 +9511,17 @@
         <f t="shared" si="11"/>
         <v>2.1130252916190515E-3</v>
       </c>
+      <c r="Z20" s="8">
+        <v>1361</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="12"/>
+        <v>2.143982356647763E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="8">
         <v>952</v>
@@ -8974,10 +9607,17 @@
         <f t="shared" si="11"/>
         <v>3.9349705685762957E-3</v>
       </c>
+      <c r="Z21" s="8">
+        <v>2627</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="12"/>
+        <v>4.1383112791430372E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="8">
         <v>987</v>
@@ -9063,10 +9703,17 @@
         <f t="shared" si="11"/>
         <v>4.9235645442980659E-3</v>
       </c>
+      <c r="Z22" s="8">
+        <v>3254</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="12"/>
+        <v>5.1260239445494642E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="8">
         <v>1533</v>
@@ -9152,10 +9799,17 @@
         <f t="shared" si="11"/>
         <v>1.4170206343388171E-2</v>
       </c>
+      <c r="Z23" s="8">
+        <v>8774</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="12"/>
+        <v>1.3821676118462509E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8">
         <v>2306</v>
@@ -9241,10 +9895,17 @@
         <f t="shared" si="11"/>
         <v>2.229780719722288E-2</v>
       </c>
+      <c r="Z24" s="8">
+        <v>13948</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="12"/>
+        <v>2.1972274732199117E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8">
         <v>4125</v>
@@ -9330,10 +9991,17 @@
         <f t="shared" si="11"/>
         <v>4.3954160288061407E-2</v>
       </c>
+      <c r="Z25" s="8">
+        <v>29657</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="12"/>
+        <v>4.6718651543793323E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="8">
         <v>518</v>
@@ -9419,10 +10087,17 @@
         <f t="shared" si="11"/>
         <v>3.3625132064080726E-3</v>
       </c>
+      <c r="Z26" s="8">
+        <v>2644</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="12"/>
+        <v>4.1650913673597981E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="8">
         <v>3255</v>
@@ -9508,10 +10183,17 @@
         <f t="shared" si="11"/>
         <v>2.0654822225576231E-2</v>
       </c>
+      <c r="Z27" s="8">
+        <v>13652</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="12"/>
+        <v>2.1505986137366099E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="8">
         <v>2128</v>
@@ -9597,10 +10279,17 @@
         <f t="shared" si="11"/>
         <v>9.7479462687854422E-3</v>
       </c>
+      <c r="Z28" s="8">
+        <v>5985</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="12"/>
+        <v>9.4281663516068061E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="8">
         <v>65</v>
@@ -9686,10 +10375,17 @@
         <f t="shared" si="11"/>
         <v>2.1777097393216758E-4</v>
       </c>
+      <c r="Z29" s="8">
+        <v>157</v>
+      </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="12"/>
+        <v>2.4732199117832388E-4</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8">
         <v>1255</v>
@@ -9775,10 +10471,17 @@
         <f t="shared" si="11"/>
         <v>8.0208715151253804E-3</v>
       </c>
+      <c r="Z30" s="8">
+        <v>5404</v>
+      </c>
+      <c r="AA30" s="7">
+        <f t="shared" si="12"/>
+        <v>8.5129174543163207E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8">
         <v>195</v>
@@ -9864,10 +10567,17 @@
         <f t="shared" si="11"/>
         <v>8.4413204251924359E-4</v>
       </c>
+      <c r="Z31" s="8">
+        <v>639</v>
+      </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0066162570888468E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="8">
         <v>423</v>
@@ -9953,10 +10663,17 @@
         <f t="shared" si="11"/>
         <v>2.0332478061191486E-3</v>
       </c>
+      <c r="Z32" s="8">
+        <v>1481</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="12"/>
+        <v>2.3330182734719596E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="8">
         <v>792</v>
@@ -10042,10 +10759,17 @@
         <f t="shared" si="11"/>
         <v>2.4590870868280903E-3</v>
       </c>
+      <c r="Z33" s="8">
+        <v>1896</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="12"/>
+        <v>2.9867674858223064E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="8">
         <v>1165</v>
@@ -10131,10 +10855,17 @@
         <f t="shared" si="11"/>
         <v>5.1898488540072013E-3</v>
       </c>
+      <c r="Z34" s="8">
+        <v>3279</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="12"/>
+        <v>5.1654064272211716E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="8">
         <v>660</v>
@@ -10220,10 +10951,17 @@
         <f t="shared" si="11"/>
         <v>2.6348131697535521E-3</v>
       </c>
+      <c r="Z35" s="8">
+        <v>1910</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="12"/>
+        <v>3.0088216761184625E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="8">
         <v>324</v>
@@ -10309,10 +11047,17 @@
         <f t="shared" si="11"/>
         <v>1.0511222751676404E-3</v>
       </c>
+      <c r="Z36" s="8">
+        <v>730</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="12"/>
+        <v>1.1499684940138627E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8">
         <v>2428</v>
@@ -10398,10 +11143,17 @@
         <f t="shared" si="11"/>
         <v>1.6636839949114902E-2</v>
       </c>
+      <c r="Z37" s="8">
+        <v>10558</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="12"/>
+        <v>1.6632010081915564E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="8">
         <v>3700</v>
@@ -10487,10 +11239,17 @@
         <f t="shared" si="11"/>
         <v>3.8347096746372281E-2</v>
       </c>
+      <c r="Z38" s="8">
+        <v>23842</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="12"/>
+        <v>3.755828607435413E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8">
         <v>1519</v>
@@ -10576,10 +11335,17 @@
         <f t="shared" si="11"/>
         <v>6.0533862308372322E-3</v>
       </c>
+      <c r="Z39" s="8">
+        <v>3475</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="12"/>
+        <v>5.4741650913673594E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="8">
         <v>1227</v>
@@ -10665,10 +11431,17 @@
         <f t="shared" si="11"/>
         <v>9.5463464067789307E-3</v>
       </c>
+      <c r="Z40" s="8">
+        <v>5818</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="12"/>
+        <v>9.165091367359799E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="8">
         <v>3842</v>
@@ -10754,10 +11527,17 @@
         <f t="shared" si="11"/>
         <v>2.9718191422842235E-2</v>
       </c>
+      <c r="Z41" s="8">
+        <v>20182</v>
+      </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="12"/>
+        <v>3.1792690611216132E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="8">
         <v>4506</v>
@@ -10843,10 +11623,17 @@
         <f t="shared" si="11"/>
         <v>2.7461782272149033E-2</v>
       </c>
+      <c r="Z42" s="8">
+        <v>17796</v>
+      </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="12"/>
+        <v>2.8034026465028356E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="8">
         <v>1639</v>
@@ -10932,10 +11719,17 @@
         <f t="shared" si="11"/>
         <v>7.3643243709437464E-3</v>
       </c>
+      <c r="Z43" s="8">
+        <v>4808</v>
+      </c>
+      <c r="AA43" s="7">
+        <f t="shared" si="12"/>
+        <v>7.5740390674228107E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="8">
         <v>561</v>
@@ -11021,10 +11815,17 @@
         <f t="shared" si="11"/>
         <v>1.9275965415381962E-3</v>
       </c>
+      <c r="Z44" s="8">
+        <v>1381</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="12"/>
+        <v>2.175488342785129E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8">
         <v>1084</v>
@@ -11110,10 +11911,17 @@
         <f t="shared" si="11"/>
         <v>7.4764440802949613E-3</v>
       </c>
+      <c r="Z45" s="8">
+        <v>4326</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="12"/>
+        <v>6.8147448015122873E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="8">
         <v>559</v>
@@ -11199,10 +12007,17 @@
         <f t="shared" si="11"/>
         <v>2.4321352336186637E-3</v>
       </c>
+      <c r="Z46" s="8">
+        <v>1736</v>
+      </c>
+      <c r="AA46" s="7">
+        <f t="shared" si="12"/>
+        <v>2.7347195967233773E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8">
         <v>1488</v>
@@ -11288,10 +12103,17 @@
         <f t="shared" si="11"/>
         <v>1.4438646801354061E-2</v>
       </c>
+      <c r="Z47" s="8">
+        <v>9177</v>
+      </c>
+      <c r="AA47" s="7">
+        <f t="shared" si="12"/>
+        <v>1.4456521739130436E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8">
         <v>6333</v>
@@ -11377,10 +12199,17 @@
         <f t="shared" si="11"/>
         <v>5.865046680609759E-2</v>
       </c>
+      <c r="Z48" s="8">
+        <v>36184</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="12"/>
+        <v>5.7000630119722749E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="8">
         <v>165</v>
@@ -11466,10 +12295,17 @@
         <f t="shared" si="11"/>
         <v>7.5788611224907824E-4</v>
       </c>
+      <c r="Z49" s="8">
+        <v>508</v>
+      </c>
+      <c r="AA49" s="7">
+        <f t="shared" si="12"/>
+        <v>8.0025204788909893E-4</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="8">
         <v>2685</v>
@@ -11555,10 +12391,17 @@
         <f t="shared" si="11"/>
         <v>2.2044459777054271E-2</v>
       </c>
+      <c r="Z50" s="8">
+        <v>14936</v>
+      </c>
+      <c r="AA50" s="7">
+        <f t="shared" si="12"/>
+        <v>2.3528670447385002E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="8">
         <v>1371</v>
@@ -11644,10 +12487,17 @@
         <f t="shared" si="11"/>
         <v>5.6695918411349966E-3</v>
       </c>
+      <c r="Z51" s="8">
+        <v>3966</v>
+      </c>
+      <c r="AA51" s="7">
+        <f t="shared" si="12"/>
+        <v>6.247637051039698E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="8">
         <v>381</v>
@@ -11733,10 +12583,17 @@
         <f t="shared" si="11"/>
         <v>2.5733629444360594E-3</v>
       </c>
+      <c r="Z52" s="8">
+        <v>1531</v>
+      </c>
+      <c r="AA52" s="7">
+        <f t="shared" si="12"/>
+        <v>2.4117832388153748E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="8">
         <v>15685</v>
@@ -11822,10 +12679,17 @@
         <f t="shared" si="11"/>
         <v>0.13621358804631406</v>
       </c>
+      <c r="Z53" s="8">
+        <v>95168</v>
+      </c>
+      <c r="AA53" s="7">
+        <f t="shared" si="12"/>
+        <v>0.14991808443604285</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8">
         <v>355</v>
@@ -11911,10 +12775,17 @@
         <f t="shared" si="11"/>
         <v>2.7286056189223572E-3</v>
       </c>
+      <c r="Z54" s="8">
+        <v>1872</v>
+      </c>
+      <c r="AA54" s="7">
+        <f t="shared" si="12"/>
+        <v>2.9489603024574671E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="8">
         <v>251</v>
@@ -12000,10 +12871,17 @@
         <f t="shared" si="11"/>
         <v>7.0721662821535613E-4</v>
       </c>
+      <c r="Z55" s="8">
+        <v>476</v>
+      </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="12"/>
+        <v>7.4984247006931314E-4</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="8">
         <v>1547</v>
@@ -12089,10 +12967,17 @@
         <f t="shared" si="11"/>
         <v>8.903814226266198E-3</v>
       </c>
+      <c r="Z56" s="8">
+        <v>6124</v>
+      </c>
+      <c r="AA56" s="7">
+        <f t="shared" si="12"/>
+        <v>9.6471329552614993E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8">
         <v>502</v>
@@ -12178,10 +13063,17 @@
         <f t="shared" si="11"/>
         <v>2.0235451389637553E-3</v>
       </c>
+      <c r="Z57" s="8">
+        <v>1298</v>
+      </c>
+      <c r="AA57" s="7">
+        <f t="shared" si="12"/>
+        <v>2.0447385003150597E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="8">
         <v>1056</v>
@@ -12267,10 +13159,17 @@
         <f t="shared" si="11"/>
         <v>4.5548631923931085E-3</v>
       </c>
+      <c r="Z58" s="8">
+        <v>2747</v>
+      </c>
+      <c r="AA58" s="7">
+        <f t="shared" si="12"/>
+        <v>4.3273471959672334E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="8">
         <v>81</v>
@@ -12356,10 +13255,17 @@
         <f t="shared" si="11"/>
         <v>2.4256667888484013E-4</v>
       </c>
+      <c r="Z59" s="8">
+        <v>156</v>
+      </c>
+      <c r="AA59" s="7">
+        <f t="shared" si="12"/>
+        <v>2.4574669187145556E-4</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="8">
         <v>438</v>
@@ -12445,10 +13351,17 @@
         <f t="shared" si="11"/>
         <v>1.4801957782617132E-3</v>
       </c>
+      <c r="Z60" s="8">
+        <v>949</v>
+      </c>
+      <c r="AA60" s="7">
+        <f t="shared" si="12"/>
+        <v>1.4949590422180215E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="8">
         <v>647</v>
@@ -12534,10 +13447,17 @@
         <f t="shared" si="11"/>
         <v>1.9599387653895083E-3</v>
       </c>
+      <c r="Z61" s="8">
+        <v>1256</v>
+      </c>
+      <c r="AA61" s="7">
+        <f t="shared" si="12"/>
+        <v>1.978575929426591E-3</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="8">
         <v>361</v>
@@ -12623,10 +13543,17 @@
         <f t="shared" si="11"/>
         <v>1.8963323918152611E-3</v>
       </c>
+      <c r="Z62" s="8">
+        <v>1333</v>
+      </c>
+      <c r="AA62" s="7">
+        <f t="shared" si="12"/>
+        <v>2.0998739760554504E-3</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="8">
         <v>614</v>
@@ -12712,10 +13639,17 @@
         <f t="shared" si="11"/>
         <v>2.5873779081049611E-3</v>
       </c>
+      <c r="Z63" s="8">
+        <v>1792</v>
+      </c>
+      <c r="AA63" s="7">
+        <f t="shared" si="12"/>
+        <v>2.8229363579080026E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="8">
         <v>482</v>
@@ -12801,10 +13735,17 @@
         <f t="shared" si="11"/>
         <v>1.7917592013626856E-3</v>
       </c>
+      <c r="Z64" s="8">
+        <v>1405</v>
+      </c>
+      <c r="AA64" s="7">
+        <f t="shared" si="12"/>
+        <v>2.2132955261499683E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="8">
         <v>2670</v>
@@ -12890,10 +13831,17 @@
         <f t="shared" si="11"/>
         <v>1.6292934302162616E-2</v>
       </c>
+      <c r="Z65" s="8">
+        <v>9673</v>
+      </c>
+      <c r="AA65" s="7">
+        <f t="shared" si="12"/>
+        <v>1.5237870195337113E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="8">
         <v>669</v>
@@ -12979,10 +13927,17 @@
         <f t="shared" si="11"/>
         <v>2.7113564328683239E-3</v>
       </c>
+      <c r="Z66" s="8">
+        <v>1727</v>
+      </c>
+      <c r="AA66" s="7">
+        <f t="shared" si="12"/>
+        <v>2.7205419029615627E-3</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="8">
         <v>4478</v>
@@ -13068,10 +14023,17 @@
         <f t="shared" si="11"/>
         <v>2.7112486254554865E-2</v>
       </c>
+      <c r="Z67" s="8">
+        <v>15841</v>
+      </c>
+      <c r="AA67" s="7">
+        <f t="shared" si="12"/>
+        <v>2.4954316320100818E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="6">
         <v>350</v>
@@ -13157,10 +14119,17 @@
         <f t="shared" si="11"/>
         <v>1.5933935617413054E-3</v>
       </c>
+      <c r="Z68" s="6">
+        <v>1086</v>
+      </c>
+      <c r="AA68" s="7">
+        <f t="shared" si="12"/>
+        <v>1.7107750472589792E-3</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="6">
         <v>3393</v>
@@ -13246,10 +14215,17 @@
         <f t="shared" si="11"/>
         <v>2.9752689794950302E-2</v>
       </c>
+      <c r="Z69" s="6">
+        <v>18730</v>
+      </c>
+      <c r="AA69" s="7">
+        <f t="shared" si="12"/>
+        <v>2.9505356017643352E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="6">
         <v>7975</v>
@@ -13335,10 +14311,17 @@
         <f t="shared" si="11"/>
         <v>4.3422669742771515E-2</v>
       </c>
+      <c r="Z70" s="6">
+        <v>29492</v>
+      </c>
+      <c r="AA70" s="7">
+        <f t="shared" si="12"/>
+        <v>4.6458727158160053E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="9">
         <v>4262</v>
@@ -13424,114 +14407,130 @@
         <f t="shared" si="11"/>
         <v>3.0442657237111623E-2</v>
       </c>
+      <c r="Z71" s="9">
+        <v>13410</v>
+      </c>
+      <c r="AA71" s="10">
+        <f t="shared" si="12"/>
+        <v>2.112476370510397E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" ref="B72:Y72" si="12">SUM(B3:B71)</f>
+        <f t="shared" ref="B72:AA72" si="13">SUM(B3:B71)</f>
         <v>139042</v>
       </c>
       <c r="C72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="D72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>576648</v>
       </c>
       <c r="E72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>630145</v>
       </c>
       <c r="G72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1099491</v>
       </c>
       <c r="I72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>952784</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1274128</v>
       </c>
       <c r="M72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1080668</v>
       </c>
       <c r="O72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="P72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1028268</v>
       </c>
       <c r="Q72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="R72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>926157</v>
       </c>
       <c r="S72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="T72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1038314</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>862931</v>
       </c>
       <c r="W72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X72" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>927580</v>
       </c>
       <c r="Y72" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
+      </c>
+      <c r="Z72" s="12">
+        <f t="shared" si="13"/>
+        <v>634800</v>
+      </c>
+      <c r="AA72" s="13">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000004</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -13546,32 +14545,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.65" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/18/2020</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;9Center for Workforce Information &amp;&amp; Analysis&amp;R&amp;"-,Bold"&amp;9Updated 6/25/2020</oddHeader>
     <oddFooter>&amp;C&amp;"-,Bold"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationSourceURL xmlns="6c39a429-32ac-4580-b063-011863d2da30" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046B5BB16432BEF42A04770AB0D42A0A1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29bb46a45f7003f1922e680ef0f7161c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6c39a429-32ac-4580-b063-011863d2da30" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbbab97b48321f6bdea650b0ca33d1e4" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13714,27 +14694,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9272C214-836E-40A1-803F-560036B22071}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c39a429-32ac-4580-b063-011863d2da30"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationSourceURL xmlns="6c39a429-32ac-4580-b063-011863d2da30" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3963659B-3CE8-4C9B-A87A-1480D2CE0F86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E43312-794F-40F2-92FD-F3A53117FB21}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CEF2FD-2D51-40A3-91BC-41009CA12008}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -13750,4 +14730,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C820916D-58A3-4B42-BED1-C6F24F531A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c39a429-32ac-4580-b063-011863d2da30"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{521A40D3-F357-4C13-96DB-B16F36DA33EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>